--- a/api/xlsx/fr/Sector.xlsx
+++ b/api/xlsx/fr/Sector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="930">
   <si>
     <t>code</t>
   </si>
@@ -1309,57 +1309,150 @@
     <t>23010</t>
   </si>
   <si>
+    <t>Politique de l’énergie et gestion administrative</t>
+  </si>
+  <si>
+    <t>Politique de l’énergie, planification et programmes; aide aux ministères de l’énergie; renforcement des capacités institutionnelles et conseils; activités non spécifiées dans le domaine de l’énergie y compris les économies d’énergie.</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
     <t>23020</t>
   </si>
   <si>
+    <t>Production d’énergie (sources non renouvelables)</t>
+  </si>
+  <si>
+    <t>Centrales thermiques (lorsque la source de chaleur ne peut être déterminée); centrales alimentées au gaz et au charbon.</t>
+  </si>
+  <si>
     <t>23030</t>
   </si>
   <si>
+    <t>Production d’énergie (sources renouvelables)</t>
+  </si>
+  <si>
+    <t>Y compris politique et planification, programmes de développement, études et primes. Production de bois de chauffage et de charbon de bois devrait être incluse dans sylviculture (31261).</t>
+  </si>
+  <si>
     <t>23040</t>
   </si>
   <si>
+    <t>Transmission et distribution d’électricité</t>
+  </si>
+  <si>
+    <t>Distribution de la source d’énergie au consommateur; lignes de transmission.</t>
+  </si>
+  <si>
     <t>23050</t>
   </si>
   <si>
+    <t>Distribution de gaz</t>
+  </si>
+  <si>
+    <t>Distribution au consommateur.</t>
+  </si>
+  <si>
     <t>23061</t>
   </si>
   <si>
+    <t>Centrales alimentées au fuel</t>
+  </si>
+  <si>
+    <t>Y compris les centrales alimentées au gas-oil.</t>
+  </si>
+  <si>
     <t>23062</t>
   </si>
   <si>
+    <t>Centrales alimentées au gaz</t>
+  </si>
+  <si>
     <t>23063</t>
   </si>
   <si>
+    <t>Centrales alimentées au charbon</t>
+  </si>
+  <si>
     <t>23064</t>
   </si>
   <si>
+    <t>Centrales nucléaires</t>
+  </si>
+  <si>
+    <t>Y compris la sécurité nucléaire. L’aide visant à favoriser une utilisation pacifique de l’énergie nucléaire est comptabilisable dans l’APD. À titre d’exemples, on citera : la construction ou le déclassement de centrales nucléaires à des fins civiles, le développement ou la fourniture d’isotopes médicaux, l’irradiation des aliments et d’autres applications industrielles et commerciales. Sont par contre exclues les activités de recherche sur les armes nucléaires et les applications militaires de la technologie nucléaire.</t>
+  </si>
+  <si>
     <t>23065</t>
   </si>
   <si>
+    <t>Centrales et barrages hydroélectriques</t>
+  </si>
+  <si>
+    <t>Y compris les installations sur les barges.</t>
+  </si>
+  <si>
     <t>23066</t>
   </si>
   <si>
+    <t>Énergie géothermique</t>
+  </si>
+  <si>
     <t>23067</t>
   </si>
   <si>
+    <t>Énergie solaire</t>
+  </si>
+  <si>
+    <t>Y compris les cellules photovoltaïques et les pompes à énergie solaire.</t>
+  </si>
+  <si>
     <t>23068</t>
   </si>
   <si>
+    <t>Énergie éolienne</t>
+  </si>
+  <si>
+    <t>Énergie éolienne pour l’hydrodynamique et la production d’électricité.</t>
+  </si>
+  <si>
     <t>23069</t>
   </si>
   <si>
+    <t>Énergie marémotrice</t>
+  </si>
+  <si>
+    <t>Y compris la conversion de l’énergie thermique marine, la puissance des marées et des vagues.</t>
+  </si>
+  <si>
     <t>23070</t>
   </si>
   <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>Technologies de densification et utilisation de la biomasse pour la production d’énergie directe, y compris le gaz obtenu par fermentation de la canne à sucre et d’autres résidus végétaux, et par anaérobie.</t>
+  </si>
+  <si>
     <t>23081</t>
   </si>
   <si>
+    <t>Éducation et formation dans le domaine de l’énergie</t>
+  </si>
+  <si>
+    <t>Se rapporte à tous les sous-secteurs de l’énergie et à tous les niveaux de formation.</t>
+  </si>
+  <si>
     <t>23082</t>
   </si>
   <si>
+    <t>Recherche dans le domaine de l’énergie</t>
+  </si>
+  <si>
+    <t>Y compris inventaires et études.</t>
+  </si>
+  <si>
     <t>23110</t>
   </si>
   <si>
@@ -1402,9 +1495,6 @@
     <t>Recherche dans le domaine de l'énergie</t>
   </si>
   <si>
-    <t>Y compris inventaires et études.</t>
-  </si>
-  <si>
     <t>23183</t>
   </si>
   <si>
@@ -1438,18 +1528,12 @@
     <t>23230</t>
   </si>
   <si>
-    <t>Énergie solaire</t>
-  </si>
-  <si>
     <t>Solaire photovoltaïque, thermodynamique, chauffage solaire.</t>
   </si>
   <si>
     <t>23240</t>
   </si>
   <si>
-    <t>Énergie éolienne</t>
-  </si>
-  <si>
     <t>Éoliennes de pompage et production d’électricité.</t>
   </si>
   <si>
@@ -1465,9 +1549,6 @@
     <t>23260</t>
   </si>
   <si>
-    <t>Énergie géothermique</t>
-  </si>
-  <si>
     <t>Application de l’énergie géothermique pour produire de l’électricité ou production de chaleur à usage agricole, etc.</t>
   </si>
   <si>
@@ -1550,9 +1631,6 @@
   </si>
   <si>
     <t>23510</t>
-  </si>
-  <si>
-    <t>Centrales nucléaires</t>
   </si>
   <si>
     <t>Dont sûreté nucléaire.</t>
@@ -5447,8 +5525,14 @@
       <c r="A144" t="s">
         <v>430</v>
       </c>
+      <c r="B144" t="s">
+        <v>431</v>
+      </c>
+      <c r="C144" t="s">
+        <v>432</v>
+      </c>
       <c r="D144" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F144" t="s">
         <v>195</v>
@@ -5456,10 +5540,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="B145" t="s">
+        <v>435</v>
+      </c>
+      <c r="C145" t="s">
+        <v>436</v>
       </c>
       <c r="D145" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F145" t="s">
         <v>195</v>
@@ -5467,10 +5557,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
+        <v>437</v>
+      </c>
+      <c r="B146" t="s">
+        <v>438</v>
+      </c>
+      <c r="C146" t="s">
+        <v>439</v>
+      </c>
+      <c r="D146" t="s">
         <v>433</v>
-      </c>
-      <c r="D146" t="s">
-        <v>431</v>
       </c>
       <c r="F146" t="s">
         <v>195</v>
@@ -5478,10 +5574,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>440</v>
+      </c>
+      <c r="B147" t="s">
+        <v>441</v>
+      </c>
+      <c r="C147" t="s">
+        <v>442</v>
       </c>
       <c r="D147" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F147" t="s">
         <v>195</v>
@@ -5489,10 +5591,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>443</v>
+      </c>
+      <c r="B148" t="s">
+        <v>444</v>
+      </c>
+      <c r="C148" t="s">
+        <v>445</v>
       </c>
       <c r="D148" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F148" t="s">
         <v>195</v>
@@ -5500,10 +5608,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>446</v>
+      </c>
+      <c r="B149" t="s">
+        <v>447</v>
+      </c>
+      <c r="C149" t="s">
+        <v>448</v>
       </c>
       <c r="D149" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F149" t="s">
         <v>195</v>
@@ -5511,10 +5625,13 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>449</v>
+      </c>
+      <c r="B150" t="s">
+        <v>450</v>
       </c>
       <c r="D150" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F150" t="s">
         <v>195</v>
@@ -5522,10 +5639,13 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>451</v>
+      </c>
+      <c r="B151" t="s">
+        <v>452</v>
       </c>
       <c r="D151" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F151" t="s">
         <v>195</v>
@@ -5533,10 +5653,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>453</v>
+      </c>
+      <c r="B152" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" t="s">
+        <v>455</v>
       </c>
       <c r="D152" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F152" t="s">
         <v>195</v>
@@ -5544,10 +5670,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>456</v>
+      </c>
+      <c r="B153" t="s">
+        <v>457</v>
+      </c>
+      <c r="C153" t="s">
+        <v>458</v>
       </c>
       <c r="D153" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F153" t="s">
         <v>195</v>
@@ -5555,10 +5687,13 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>459</v>
+      </c>
+      <c r="B154" t="s">
+        <v>460</v>
       </c>
       <c r="D154" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F154" t="s">
         <v>195</v>
@@ -5566,10 +5701,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>442</v>
+        <v>461</v>
+      </c>
+      <c r="B155" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" t="s">
+        <v>463</v>
       </c>
       <c r="D155" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F155" t="s">
         <v>195</v>
@@ -5577,10 +5718,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>443</v>
+        <v>464</v>
+      </c>
+      <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" t="s">
+        <v>466</v>
       </c>
       <c r="D156" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F156" t="s">
         <v>195</v>
@@ -5588,10 +5735,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" t="s">
+        <v>469</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F157" t="s">
         <v>195</v>
@@ -5599,10 +5752,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>445</v>
+        <v>470</v>
+      </c>
+      <c r="B158" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" t="s">
+        <v>472</v>
       </c>
       <c r="D158" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F158" t="s">
         <v>195</v>
@@ -5610,10 +5769,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>446</v>
+        <v>473</v>
+      </c>
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" t="s">
+        <v>475</v>
       </c>
       <c r="D159" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F159" t="s">
         <v>195</v>
@@ -5621,10 +5786,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>447</v>
+        <v>476</v>
+      </c>
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" t="s">
+        <v>478</v>
       </c>
       <c r="D160" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F160" t="s">
         <v>195</v>
@@ -5632,16 +5803,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="C161" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -5649,13 +5820,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5663,16 +5834,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -5680,16 +5851,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -5697,16 +5868,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -5714,16 +5885,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B166" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="C166" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="D166" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -5731,16 +5902,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="B167" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="C167" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D167" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -5748,16 +5919,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B168" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="D168" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -5765,16 +5936,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B169" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C169" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="D169" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -5782,16 +5953,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B170" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="D170" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -5799,16 +5970,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B171" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C171" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="D171" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -5816,16 +5987,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="B172" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="C172" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="D172" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -5833,16 +6004,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="B173" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C173" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="D173" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -5850,16 +6021,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="B174" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C174" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -5867,16 +6038,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="B175" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C175" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -5884,16 +6055,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="B176" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C176" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -5901,16 +6072,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="B177" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="C177" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -5918,16 +6089,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="C178" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -5935,16 +6106,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C179" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="D179" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -5952,16 +6123,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="B180" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C180" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="D180" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -5969,16 +6140,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="B181" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="C181" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="D181" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -5986,16 +6157,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D182" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6003,16 +6174,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="B183" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="D183" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6020,16 +6191,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="C184" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="D184" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6037,16 +6208,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="B185" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="C185" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="D185" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6054,16 +6225,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="D186" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6071,16 +6242,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="B187" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="C187" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="D187" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6088,16 +6259,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="B188" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="C188" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="D188" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6105,16 +6276,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="B189" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="C189" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="D189" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6122,16 +6293,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="B190" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="C190" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="D190" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6139,13 +6310,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="B191" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="D191" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -6153,16 +6324,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="B192" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="C192" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="D192" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -6170,16 +6341,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="B193" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C193" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="D193" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -6187,13 +6358,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="B194" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="D194" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -6201,13 +6372,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D195" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -6215,16 +6386,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="B196" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C196" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="D196" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6232,16 +6403,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="C197" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="D197" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6249,16 +6420,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="B198" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D198" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6266,16 +6437,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B199" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6283,16 +6454,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="B200" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C200" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="D200" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -6300,16 +6471,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="C201" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="D201" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -6317,16 +6488,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="B202" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="C202" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="D202" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -6334,16 +6505,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="B203" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="D203" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -6351,16 +6522,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="B204" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="C204" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="D204" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -6368,16 +6539,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>613</v>
+      </c>
+      <c r="D205" t="s">
         <v>586</v>
-      </c>
-      <c r="C205" t="s">
-        <v>587</v>
-      </c>
-      <c r="D205" t="s">
-        <v>560</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -6385,16 +6556,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="B206" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="C206" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="D206" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -6402,13 +6573,13 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B207" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="D207" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -6416,16 +6587,16 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="B208" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="C208" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="D208" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -6433,16 +6604,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="B209" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C209" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="D209" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -6450,16 +6621,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B210" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C210" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="D210" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -6467,16 +6638,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B211" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D211" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -6484,16 +6655,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C212" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D212" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -6501,16 +6672,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="B213" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="C213" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D213" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -6518,16 +6689,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B214" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="C214" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="D214" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -6535,16 +6706,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B215" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C215" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="D215" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -6552,16 +6723,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="B216" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="C216" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="D216" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -6569,13 +6740,13 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B217" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="D217" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -6583,16 +6754,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B218" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="C218" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="D218" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -6600,13 +6771,13 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="B219" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="D219" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -6614,16 +6785,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B220" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C220" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="D220" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -6631,16 +6802,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="B221" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="C221" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="D221" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -6648,13 +6819,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="B222" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="D222" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -6662,16 +6833,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="B223" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="C223" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="D223" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -6679,16 +6850,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="B224" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="C224" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="D224" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -6696,16 +6867,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="B225" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="C225" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="D225" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -6713,13 +6884,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="B226" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="D226" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -6727,16 +6898,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="B227" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="C227" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="D227" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -6744,13 +6915,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="B228" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="D228" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -6758,16 +6929,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="B229" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="C229" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="D229" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -6775,16 +6946,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="B230" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="C230" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="D230" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -6792,16 +6963,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="B231" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="C231" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="D231" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -6809,16 +6980,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="B232" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="C232" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="D232" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -6826,13 +6997,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="B233" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="D233" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -6840,13 +7011,13 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="B234" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="D234" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -6854,16 +7025,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="B235" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="C235" t="s">
+        <v>698</v>
+      </c>
+      <c r="D235" t="s">
         <v>672</v>
-      </c>
-      <c r="D235" t="s">
-        <v>646</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -6871,16 +7042,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="B236" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="C236" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="D236" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -6888,16 +7059,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="B237" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="C237" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="D237" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -6905,13 +7076,13 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="B238" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="D238" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -6919,16 +7090,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="B239" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="C239" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="D239" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -6936,16 +7107,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B240" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="C240" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="D240" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -6953,16 +7124,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="B241" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="C241" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="D241" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -6970,16 +7141,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B242" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="C242" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="D242" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -6987,16 +7158,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="B243" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="C243" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="D243" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -7004,16 +7175,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="B244" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="C244" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="D244" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7021,16 +7192,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="B245" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="C245" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="D245" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7038,16 +7209,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="B246" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="C246" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="D246" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7055,16 +7226,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="B247" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="C247" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="D247" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7072,16 +7243,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="B248" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="C248" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="D248" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7089,16 +7260,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="B249" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="C249" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="D249" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7106,16 +7277,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="B250" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="C250" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="D250" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7123,16 +7294,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="B251" t="s">
+        <v>745</v>
+      </c>
+      <c r="C251" t="s">
+        <v>746</v>
+      </c>
+      <c r="D251" t="s">
         <v>719</v>
-      </c>
-      <c r="C251" t="s">
-        <v>720</v>
-      </c>
-      <c r="D251" t="s">
-        <v>693</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7140,16 +7311,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="B252" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="C252" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="D252" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -7157,16 +7328,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="B253" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="C253" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="D253" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -7174,16 +7345,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="B254" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="D254" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -7191,16 +7362,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="B255" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="C255" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="D255" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -7208,16 +7379,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="B256" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="C256" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="D256" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -7225,16 +7396,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="B257" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="C257" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="D257" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -7242,16 +7413,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="B258" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="C258" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="D258" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -7259,13 +7430,13 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="B259" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D259" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -7273,16 +7444,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="B260" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="C260" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="D260" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -7290,16 +7461,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="B261" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="C261" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="D261" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -7307,16 +7478,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="B262" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="C262" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="D262" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -7324,16 +7495,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="B263" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="C263" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="D263" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -7341,16 +7512,16 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="B264" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="C264" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="D264" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F264" t="s">
         <v>195</v>
@@ -7358,13 +7529,13 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="B265" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="D265" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -7372,16 +7543,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="B266" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="C266" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="D266" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -7389,13 +7560,13 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="B267" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="D267" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -7403,16 +7574,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="B268" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="C268" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="D268" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -7420,16 +7591,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="B269" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="C269" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="D269" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -7437,16 +7608,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="B270" t="s">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="C270" t="s">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="D270" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -7454,16 +7625,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="B271" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C271" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="D271" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -7471,16 +7642,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="B272" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="C272" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="D272" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -7488,16 +7659,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="B273" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="C273" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="D273" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -7505,16 +7676,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="B274" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="C274" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="D274" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -7522,16 +7693,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="B275" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="C275" t="s">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="D275" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -7539,13 +7710,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="B276" t="s">
-        <v>795</v>
+        <v>821</v>
       </c>
       <c r="D276" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -7553,13 +7724,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
+        <v>822</v>
+      </c>
+      <c r="B277" t="s">
+        <v>823</v>
+      </c>
+      <c r="D277" t="s">
         <v>796</v>
-      </c>
-      <c r="B277" t="s">
-        <v>797</v>
-      </c>
-      <c r="D277" t="s">
-        <v>770</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -7567,13 +7738,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="B278" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="D278" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -7581,16 +7752,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="B279" t="s">
-        <v>801</v>
+        <v>827</v>
       </c>
       <c r="C279" t="s">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="D279" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -7598,16 +7769,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="B280" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="C280" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="D280" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -7615,16 +7786,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>806</v>
+        <v>832</v>
       </c>
       <c r="B281" t="s">
-        <v>807</v>
+        <v>833</v>
       </c>
       <c r="C281" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="D281" t="s">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -7632,16 +7803,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="B282" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="C282" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="D282" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -7649,16 +7820,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>814</v>
+        <v>840</v>
       </c>
       <c r="B283" t="s">
-        <v>815</v>
+        <v>841</v>
       </c>
       <c r="C283" t="s">
-        <v>816</v>
+        <v>842</v>
       </c>
       <c r="D283" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -7666,16 +7837,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="B284" t="s">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="C284" t="s">
-        <v>820</v>
+        <v>846</v>
       </c>
       <c r="D284" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -7683,16 +7854,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>821</v>
+        <v>847</v>
       </c>
       <c r="B285" t="s">
-        <v>822</v>
+        <v>848</v>
       </c>
       <c r="C285" t="s">
-        <v>823</v>
+        <v>849</v>
       </c>
       <c r="D285" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -7700,13 +7871,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="B286" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="D286" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -7714,16 +7885,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="B287" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="C287" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="D287" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -7731,13 +7902,13 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="B288" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="D288" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F288" t="s">
         <v>10</v>
@@ -7745,16 +7916,16 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="B289" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="C289" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="D289" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F289" t="s">
         <v>10</v>
@@ -7762,16 +7933,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="B290" t="s">
-        <v>836</v>
+        <v>862</v>
       </c>
       <c r="C290" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="D290" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F290" t="s">
         <v>10</v>
@@ -7779,16 +7950,16 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="B291" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="C291" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="D291" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="F291" t="s">
         <v>10</v>
@@ -7796,16 +7967,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>841</v>
+        <v>867</v>
       </c>
       <c r="B292" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="C292" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="D292" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="F292" t="s">
         <v>10</v>
@@ -7813,16 +7984,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="B293" t="s">
-        <v>846</v>
+        <v>872</v>
       </c>
       <c r="C293" t="s">
-        <v>847</v>
+        <v>873</v>
       </c>
       <c r="D293" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -7830,16 +8001,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="B294" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="C294" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="D294" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="F294" t="s">
         <v>10</v>
@@ -7847,16 +8018,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="B295" t="s">
-        <v>852</v>
+        <v>878</v>
       </c>
       <c r="C295" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="D295" t="s">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="F295" t="s">
         <v>10</v>
@@ -7864,16 +8035,16 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>855</v>
+        <v>881</v>
       </c>
       <c r="B296" t="s">
-        <v>856</v>
+        <v>882</v>
       </c>
       <c r="C296" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="D296" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="F296" t="s">
         <v>195</v>
@@ -7881,16 +8052,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>859</v>
+        <v>885</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="C297" t="s">
-        <v>861</v>
+        <v>887</v>
       </c>
       <c r="D297" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="F297" t="s">
         <v>10</v>
@@ -7898,13 +8069,13 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="B298" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="D298" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="F298" t="s">
         <v>10</v>
@@ -7912,10 +8083,10 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="D299" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="F299" t="s">
         <v>195</v>
@@ -7923,10 +8094,10 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="D300" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="F300" t="s">
         <v>195</v>
@@ -7934,10 +8105,10 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="D301" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="F301" t="s">
         <v>195</v>
@@ -7945,16 +8116,16 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="B302" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="C302" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="D302" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F302" t="s">
         <v>10</v>
@@ -7962,16 +8133,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="B303" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="C303" t="s">
-        <v>875</v>
+        <v>901</v>
       </c>
       <c r="D303" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F303" t="s">
         <v>10</v>
@@ -7979,16 +8150,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>876</v>
+        <v>902</v>
       </c>
       <c r="B304" t="s">
-        <v>877</v>
+        <v>903</v>
       </c>
       <c r="C304" t="s">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="D304" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F304" t="s">
         <v>10</v>
@@ -7996,16 +8167,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>879</v>
+        <v>905</v>
       </c>
       <c r="B305" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="C305" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
       <c r="D305" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F305" t="s">
         <v>10</v>
@@ -8013,16 +8184,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
       <c r="B306" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="C306" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="D306" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F306" t="s">
         <v>10</v>
@@ -8030,16 +8201,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="B307" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="C307" t="s">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="D307" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F307" t="s">
         <v>10</v>
@@ -8047,16 +8218,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="B308" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="C308" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="D308" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F308" t="s">
         <v>10</v>
@@ -8064,16 +8235,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="B309" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="C309" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="D309" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F309" t="s">
         <v>10</v>
@@ -8081,16 +8252,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="B310" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="C310" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="D310" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -8098,16 +8269,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="B311" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="C311" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
       <c r="D311" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="F311" t="s">
         <v>10</v>
@@ -8115,16 +8286,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="B312" t="s">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="C312" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="D312" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>

--- a/api/xlsx/fr/Sector.xlsx
+++ b/api/xlsx/fr/Sector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="939">
   <si>
     <t>code</t>
   </si>
@@ -601,6 +601,12 @@
     <t>15120</t>
   </si>
   <si>
+    <t>Gestion financière du secteur public</t>
+  </si>
+  <si>
+    <t>Renforcement de la comptabilité financière et fiscale; gestion des dépenses publiques; amélioration des systèmes budgétaires; procédures d’évaluation des impôts; préparation du budget; audits sur le terrain; mesures contre le gaspillage, la fraude et la corruption.</t>
+  </si>
+  <si>
     <t>withdrawn</t>
   </si>
   <si>
@@ -757,6 +763,12 @@
     <t>15140</t>
   </si>
   <si>
+    <t>Administration gouvernementale</t>
+  </si>
+  <si>
+    <t>Systèmes gouvernementaux, y compris parlement, administration locale; décentralisation; fonction publique et réformes de la fonction publique. Y compris services généraux gouvernementaux (ou mandatés par le gouvernement), par exemple police, lutte contre l’incendie; cartographie, météorologie, métrologie, levés aériens; bâtiments administratifs.</t>
+  </si>
+  <si>
     <t>15142</t>
   </si>
   <si>
@@ -856,22 +868,37 @@
     <t>15161</t>
   </si>
   <si>
+    <t>Élections</t>
+  </si>
+  <si>
+    <t>Soutien et suivi des processus électoraux; éducation civique des électeurs [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
+  </si>
+  <si>
     <t>15162</t>
   </si>
   <si>
+    <t>Surveillance de l’application des droits de la personne; soutien aux organismes nationaux et régionaux des droits de la personne; protection des minorités ethniques, religieuses et culturelles [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
+  </si>
+  <si>
     <t>15163</t>
   </si>
   <si>
+    <t>Liberté de l’information</t>
+  </si>
+  <si>
+    <t>Diffusion non censurée de l’information sur les questions publiques, y compris les activités qui améliorent le professionnalisme et l’intégrité des médias : presse écrite, radio et télévision (par exemple, formation des journalistes).</t>
+  </si>
+  <si>
     <t>15164</t>
   </si>
   <si>
+    <t>Organisations et institutions pour l’égalité des femmes</t>
+  </si>
+  <si>
+    <t>Soutien aux institutions et organisations (gouvernementales et non gouvernementales) qui œuvrent pour l’égalité homme-femme et l’autonomisation des femmes.</t>
+  </si>
+  <si>
     <t>15170</t>
-  </si>
-  <si>
-    <t>Organisations et institutions pour l’égalité des femmes</t>
-  </si>
-  <si>
-    <t>Soutien aux institutions et organisations (gouvernementales et non gouvernementales) qui œuvrent pour l’égalité homme-femme et l’autonomisation des femmes.</t>
   </si>
   <si>
     <t>15180</t>
@@ -4168,22 +4195,28 @@
       <c r="A61" t="s">
         <v>194</v>
       </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
       <c r="D61" t="s">
         <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
         <v>169</v>
@@ -4194,13 +4227,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -4211,13 +4244,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -4228,13 +4261,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>169</v>
@@ -4245,13 +4278,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>169</v>
@@ -4262,13 +4295,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
         <v>169</v>
@@ -4279,13 +4312,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
         <v>169</v>
@@ -4296,13 +4329,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
         <v>169</v>
@@ -4313,13 +4346,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
         <v>169</v>
@@ -4330,13 +4363,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D71" t="s">
         <v>169</v>
@@ -4347,13 +4380,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
         <v>169</v>
@@ -4364,13 +4397,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
         <v>169</v>
@@ -4381,13 +4414,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
         <v>169</v>
@@ -4398,13 +4431,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
         <v>169</v>
@@ -4415,13 +4448,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
@@ -4432,13 +4465,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
         <v>169</v>
@@ -4449,10 +4482,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
         <v>169</v>
@@ -4463,24 +4496,30 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>250</v>
       </c>
       <c r="D79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
         <v>169</v>
@@ -4491,13 +4530,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
         <v>169</v>
@@ -4508,13 +4547,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D82" t="s">
         <v>169</v>
@@ -4525,13 +4564,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
         <v>169</v>
@@ -4542,13 +4581,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D84" t="s">
         <v>169</v>
@@ -4559,13 +4598,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D85" t="s">
         <v>169</v>
@@ -4576,13 +4615,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -4593,13 +4632,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>169</v>
@@ -4610,10 +4649,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
         <v>169</v>
@@ -4624,13 +4663,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>169</v>
@@ -4641,13 +4680,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>169</v>
@@ -4658,57 +4697,81 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="B91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" t="s">
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" t="s">
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" t="s">
+        <v>293</v>
       </c>
       <c r="D94" t="s">
         <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
         <v>169</v>
@@ -4719,13 +4782,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
         <v>169</v>
@@ -4736,13 +4799,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D97" t="s">
         <v>169</v>
@@ -4753,13 +4816,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
         <v>169</v>
@@ -4770,16 +4833,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4787,16 +4850,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4804,16 +4867,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -4821,16 +4884,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" t="s">
         <v>307</v>
-      </c>
-      <c r="D102" t="s">
-        <v>298</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4838,16 +4901,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C103" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -4855,16 +4918,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4872,16 +4935,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B105" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4889,16 +4952,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4906,16 +4969,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D107" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4923,16 +4986,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" t="s">
         <v>326</v>
-      </c>
-      <c r="D108" t="s">
-        <v>317</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4940,16 +5003,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4957,16 +5020,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4974,16 +5037,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4991,16 +5054,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -5008,16 +5071,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -5025,16 +5088,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -5042,16 +5105,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -5059,16 +5122,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D116" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -5076,16 +5139,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -5093,16 +5156,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -5110,13 +5173,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5124,13 +5187,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5138,16 +5201,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C121" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5155,16 +5218,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D122" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5172,16 +5235,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C123" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D123" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5189,16 +5252,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D124" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5206,16 +5269,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5223,16 +5286,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B126" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" t="s">
         <v>379</v>
-      </c>
-      <c r="D126" t="s">
-        <v>370</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5240,16 +5303,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D127" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5257,16 +5320,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5274,16 +5337,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B129" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5291,16 +5354,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5308,16 +5371,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5325,16 +5388,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D132" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5342,16 +5405,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5359,16 +5422,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5376,16 +5439,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D135" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5393,13 +5456,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5407,16 +5470,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C137" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D137" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5424,13 +5487,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5438,16 +5501,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5455,16 +5518,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5472,16 +5535,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" t="s">
+        <v>431</v>
+      </c>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" t="s">
         <v>421</v>
-      </c>
-      <c r="B141" t="s">
-        <v>422</v>
-      </c>
-      <c r="C141" t="s">
-        <v>423</v>
-      </c>
-      <c r="D141" t="s">
-        <v>412</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -5489,16 +5552,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D142" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -5506,16 +5569,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C143" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D143" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5523,296 +5586,296 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B144" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C144" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C145" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="D145" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C146" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D146" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B147" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C147" t="s">
+        <v>451</v>
+      </c>
+      <c r="D147" t="s">
         <v>442</v>
       </c>
-      <c r="D147" t="s">
-        <v>433</v>
-      </c>
       <c r="F147" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B148" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C148" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D148" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B149" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C149" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D149" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B150" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D150" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F150" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B151" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D151" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B152" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C152" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D152" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F152" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C153" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D153" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F153" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B154" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D154" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C155" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D155" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F155" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B156" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C156" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D156" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B157" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C157" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D157" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B158" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C158" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B159" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C159" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D159" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B160" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C160" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D160" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B161" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C161" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D161" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -5820,13 +5883,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D162" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5834,16 +5897,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B163" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C163" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D163" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -5851,16 +5914,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="C164" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -5868,16 +5931,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
+        <v>500</v>
+      </c>
+      <c r="B165" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" t="s">
+        <v>487</v>
+      </c>
+      <c r="D165" t="s">
         <v>491</v>
-      </c>
-      <c r="B165" t="s">
-        <v>492</v>
-      </c>
-      <c r="C165" t="s">
-        <v>478</v>
-      </c>
-      <c r="D165" t="s">
-        <v>482</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -5885,16 +5948,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B166" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C166" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -5902,16 +5965,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B167" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C167" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D167" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -5919,16 +5982,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B168" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D168" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -5936,16 +5999,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B169" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D169" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -5953,16 +6016,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B170" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D170" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -5970,16 +6033,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B171" t="s">
+        <v>517</v>
+      </c>
+      <c r="C171" t="s">
+        <v>518</v>
+      </c>
+      <c r="D171" t="s">
         <v>508</v>
-      </c>
-      <c r="C171" t="s">
-        <v>509</v>
-      </c>
-      <c r="D171" t="s">
-        <v>499</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -5987,16 +6050,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B172" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C172" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D172" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -6004,16 +6067,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B173" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C173" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="D173" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -6021,16 +6084,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B174" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D174" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -6038,16 +6101,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B175" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C175" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D175" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6055,16 +6118,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B176" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C176" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="D176" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6072,16 +6135,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B177" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C177" t="s">
+        <v>536</v>
+      </c>
+      <c r="D177" t="s">
         <v>527</v>
-      </c>
-      <c r="D177" t="s">
-        <v>518</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6089,16 +6152,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B178" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C178" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D178" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6106,16 +6169,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B179" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C179" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D179" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6123,16 +6186,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B180" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C180" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D180" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6140,16 +6203,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B181" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C181" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D181" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6157,16 +6220,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B182" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C182" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D182" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6174,16 +6237,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B183" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C183" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D183" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6191,16 +6254,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B184" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D184" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6208,16 +6271,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B185" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="C185" t="s">
+        <v>562</v>
+      </c>
+      <c r="D185" t="s">
         <v>553</v>
-      </c>
-      <c r="D185" t="s">
-        <v>544</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6225,16 +6288,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="B186" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C186" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D186" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6242,16 +6305,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C187" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D187" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6259,16 +6322,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B188" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C188" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D188" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6276,16 +6339,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B189" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C189" t="s">
+        <v>575</v>
+      </c>
+      <c r="D189" t="s">
         <v>566</v>
-      </c>
-      <c r="D189" t="s">
-        <v>557</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6293,16 +6356,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B190" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C190" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D190" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6310,13 +6373,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B191" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D191" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -6324,16 +6387,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B192" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D192" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -6341,16 +6404,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="B193" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D193" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -6358,13 +6421,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B194" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D194" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -6372,13 +6435,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B195" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="D195" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -6386,16 +6449,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B196" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C196" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D196" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6403,16 +6466,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B197" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="C197" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="D197" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6420,16 +6483,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B198" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C198" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D198" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6437,16 +6500,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B199" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="C199" t="s">
+        <v>604</v>
+      </c>
+      <c r="D199" t="s">
         <v>595</v>
-      </c>
-      <c r="D199" t="s">
-        <v>586</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6454,16 +6517,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B200" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="C200" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D200" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -6471,16 +6534,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B201" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C201" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D201" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -6488,16 +6551,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B202" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C202" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D202" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -6505,16 +6568,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B203" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C203" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="D203" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -6522,16 +6585,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B204" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C204" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D204" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -6539,16 +6602,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B205" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C205" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="D205" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -6556,16 +6619,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B206" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="C206" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D206" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -6573,13 +6636,13 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B207" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="D207" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -6587,16 +6650,16 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B208" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="C208" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D208" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -6604,16 +6667,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B209" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C209" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D209" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -6621,16 +6684,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="B210" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C210" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="D210" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -6638,16 +6701,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B211" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C211" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="D211" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -6655,16 +6718,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B212" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C212" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="D212" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -6672,16 +6735,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="B213" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="C213" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -6689,16 +6752,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="B214" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="C214" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="D214" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -6706,16 +6769,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B215" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C215" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D215" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -6723,16 +6786,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B216" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C216" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D216" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -6740,13 +6803,13 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B217" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="D217" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -6754,16 +6817,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
+        <v>658</v>
+      </c>
+      <c r="B218" t="s">
+        <v>659</v>
+      </c>
+      <c r="C218" t="s">
+        <v>660</v>
+      </c>
+      <c r="D218" t="s">
         <v>649</v>
-      </c>
-      <c r="B218" t="s">
-        <v>650</v>
-      </c>
-      <c r="C218" t="s">
-        <v>651</v>
-      </c>
-      <c r="D218" t="s">
-        <v>640</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -6771,13 +6834,13 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B219" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D219" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -6785,16 +6848,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="B220" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="C220" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="D220" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -6802,16 +6865,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B221" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="C221" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D221" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -6819,13 +6882,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B222" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D222" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -6833,16 +6896,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B223" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="C223" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D223" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -6850,16 +6913,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
+        <v>675</v>
+      </c>
+      <c r="B224" t="s">
+        <v>676</v>
+      </c>
+      <c r="C224" t="s">
+        <v>677</v>
+      </c>
+      <c r="D224" t="s">
         <v>666</v>
-      </c>
-      <c r="B224" t="s">
-        <v>667</v>
-      </c>
-      <c r="C224" t="s">
-        <v>668</v>
-      </c>
-      <c r="D224" t="s">
-        <v>657</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -6867,16 +6930,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B225" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C225" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="D225" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -6884,13 +6947,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B226" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="D226" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -6898,16 +6961,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B227" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="C227" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D227" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -6915,13 +6978,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B228" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D228" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -6929,16 +6992,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B229" t="s">
+        <v>690</v>
+      </c>
+      <c r="C229" t="s">
+        <v>691</v>
+      </c>
+      <c r="D229" t="s">
         <v>681</v>
-      </c>
-      <c r="C229" t="s">
-        <v>682</v>
-      </c>
-      <c r="D229" t="s">
-        <v>672</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -6946,16 +7009,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C230" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D230" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -6963,16 +7026,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B231" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C231" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D231" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -6980,16 +7043,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B232" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C232" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D232" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -6997,13 +7060,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B233" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="D233" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -7011,13 +7074,13 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B234" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="D234" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -7025,16 +7088,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B235" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="C235" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D235" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7042,16 +7105,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B236" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C236" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="D236" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7059,16 +7122,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B237" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C237" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D237" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7076,13 +7139,13 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B238" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D238" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -7090,16 +7153,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B239" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C239" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D239" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -7107,16 +7170,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B240" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C240" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D240" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -7124,16 +7187,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B241" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C241" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D241" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -7141,16 +7204,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B242" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C242" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D242" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -7158,16 +7221,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B243" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="C243" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="D243" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -7175,16 +7238,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="B244" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C244" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D244" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7192,16 +7255,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B245" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="C245" t="s">
+        <v>737</v>
+      </c>
+      <c r="D245" t="s">
         <v>728</v>
-      </c>
-      <c r="D245" t="s">
-        <v>719</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7209,16 +7272,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="B246" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D246" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7226,16 +7289,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B247" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C247" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="D247" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7243,16 +7306,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="B248" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C248" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="D248" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7260,16 +7323,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B249" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C249" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="D249" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7277,16 +7340,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B250" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C250" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="D250" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7294,16 +7357,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B251" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C251" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="D251" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7311,16 +7374,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B252" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="D252" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -7328,16 +7391,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B253" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C253" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="D253" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -7345,16 +7408,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B254" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C254" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D254" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -7362,16 +7425,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B255" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C255" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="D255" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -7379,16 +7442,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="B256" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C256" t="s">
+        <v>772</v>
+      </c>
+      <c r="D256" t="s">
         <v>763</v>
-      </c>
-      <c r="D256" t="s">
-        <v>754</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -7396,16 +7459,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B257" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D257" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -7413,16 +7476,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B258" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C258" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="D258" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -7430,13 +7493,13 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B259" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="D259" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -7444,16 +7507,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="B260" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C260" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="D260" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -7461,16 +7524,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B261" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C261" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="D261" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -7478,16 +7541,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B262" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C262" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D262" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -7495,16 +7558,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="B263" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="C263" t="s">
+        <v>794</v>
+      </c>
+      <c r="D263" t="s">
         <v>785</v>
-      </c>
-      <c r="D263" t="s">
-        <v>776</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -7512,30 +7575,30 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B264" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C264" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D264" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F264" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B265" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="D265" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -7543,16 +7606,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="B266" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C266" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="D266" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -7560,13 +7623,13 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="B267" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D267" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -7574,16 +7637,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B268" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C268" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D268" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -7591,16 +7654,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B269" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C269" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="D269" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -7608,16 +7671,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B270" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C270" t="s">
+        <v>814</v>
+      </c>
+      <c r="D270" t="s">
         <v>805</v>
-      </c>
-      <c r="D270" t="s">
-        <v>796</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -7625,16 +7688,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="B271" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C271" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="D271" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -7642,16 +7705,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="B272" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C272" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="D272" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -7659,16 +7722,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B273" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C273" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="D273" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -7676,16 +7739,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="B274" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C274" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="D274" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -7693,16 +7756,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B275" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C275" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="D275" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -7710,13 +7773,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="B276" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="D276" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -7724,13 +7787,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B277" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D277" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -7738,13 +7801,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="B278" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="D278" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -7752,16 +7815,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="B279" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="C279" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="D279" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -7769,16 +7832,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B280" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C280" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D280" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -7786,16 +7849,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="B281" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C281" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="D281" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -7803,16 +7866,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B282" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="C282" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="D282" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -7820,16 +7883,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B283" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C283" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D283" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -7837,16 +7900,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B284" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C284" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D284" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -7854,16 +7917,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="B285" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="C285" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="D285" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -7871,13 +7934,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="B286" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D286" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -7885,16 +7948,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="B287" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="C287" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="D287" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -7902,13 +7965,13 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="B288" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="D288" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F288" t="s">
         <v>10</v>
@@ -7916,16 +7979,16 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="B289" t="s">
+        <v>868</v>
+      </c>
+      <c r="C289" t="s">
+        <v>869</v>
+      </c>
+      <c r="D289" t="s">
         <v>859</v>
-      </c>
-      <c r="C289" t="s">
-        <v>860</v>
-      </c>
-      <c r="D289" t="s">
-        <v>850</v>
       </c>
       <c r="F289" t="s">
         <v>10</v>
@@ -7933,16 +7996,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="B290" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="C290" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="D290" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F290" t="s">
         <v>10</v>
@@ -7950,16 +8013,16 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="B291" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="C291" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="D291" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F291" t="s">
         <v>10</v>
@@ -7967,16 +8030,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="B292" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="C292" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="D292" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="F292" t="s">
         <v>10</v>
@@ -7984,16 +8047,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="B293" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="C293" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="D293" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -8001,16 +8064,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="B294" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="C294" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D294" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="F294" t="s">
         <v>10</v>
@@ -8018,16 +8081,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="B295" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="C295" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="D295" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="F295" t="s">
         <v>10</v>
@@ -8035,33 +8098,33 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="B296" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="C296" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="D296" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="F296" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="B297" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="C297" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="D297" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="F297" t="s">
         <v>10</v>
@@ -8069,13 +8132,13 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="B298" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="D298" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="F298" t="s">
         <v>10</v>
@@ -8083,49 +8146,49 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="D299" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="F299" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="D300" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="F300" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="D301" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="F301" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B302" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="C302" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D302" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F302" t="s">
         <v>10</v>
@@ -8133,16 +8196,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="B303" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C303" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="D303" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F303" t="s">
         <v>10</v>
@@ -8150,16 +8213,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="B304" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="C304" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="D304" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F304" t="s">
         <v>10</v>
@@ -8167,16 +8230,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="B305" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="C305" t="s">
+        <v>916</v>
+      </c>
+      <c r="D305" t="s">
         <v>907</v>
-      </c>
-      <c r="D305" t="s">
-        <v>898</v>
       </c>
       <c r="F305" t="s">
         <v>10</v>
@@ -8184,16 +8247,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="B306" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C306" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="D306" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F306" t="s">
         <v>10</v>
@@ -8201,16 +8264,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="B307" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="C307" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="D307" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F307" t="s">
         <v>10</v>
@@ -8218,16 +8281,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="B308" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="C308" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="D308" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F308" t="s">
         <v>10</v>
@@ -8235,16 +8298,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="B309" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="C309" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="D309" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F309" t="s">
         <v>10</v>
@@ -8252,16 +8315,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B310" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C310" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="D310" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -8269,16 +8332,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="B311" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C311" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D311" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F311" t="s">
         <v>10</v>
@@ -8286,16 +8349,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="B312" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="C312" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="D312" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>

--- a/api/xlsx/fr/Sector.xlsx
+++ b/api/xlsx/fr/Sector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="904">
   <si>
     <t>code</t>
   </si>
@@ -601,12 +601,6 @@
     <t>15120</t>
   </si>
   <si>
-    <t>Gestion financière du secteur public</t>
-  </si>
-  <si>
-    <t>Renforcement de la comptabilité financière et fiscale; gestion des dépenses publiques; amélioration des systèmes budgétaires; procédures d’évaluation des impôts; préparation du budget; audits sur le terrain; mesures contre le gaspillage, la fraude et la corruption.</t>
-  </si>
-  <si>
     <t>withdrawn</t>
   </si>
   <si>
@@ -763,12 +757,6 @@
     <t>15140</t>
   </si>
   <si>
-    <t>Administration gouvernementale</t>
-  </si>
-  <si>
-    <t>Systèmes gouvernementaux, y compris parlement, administration locale; décentralisation; fonction publique et réformes de la fonction publique. Y compris services généraux gouvernementaux (ou mandatés par le gouvernement), par exemple police, lutte contre l’incendie; cartographie, météorologie, métrologie, levés aériens; bâtiments administratifs.</t>
-  </si>
-  <si>
     <t>15142</t>
   </si>
   <si>
@@ -868,39 +856,24 @@
     <t>15161</t>
   </si>
   <si>
-    <t>Élections</t>
-  </si>
-  <si>
-    <t>Soutien et suivi des processus électoraux; éducation civique des électeurs [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
-  </si>
-  <si>
     <t>15162</t>
   </si>
   <si>
-    <t>Surveillance de l’application des droits de la personne; soutien aux organismes nationaux et régionaux des droits de la personne; protection des minorités ethniques, religieuses et culturelles [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
-  </si>
-  <si>
     <t>15163</t>
   </si>
   <si>
-    <t>Liberté de l’information</t>
-  </si>
-  <si>
-    <t>Diffusion non censurée de l’information sur les questions publiques, y compris les activités qui améliorent le professionnalisme et l’intégrité des médias : presse écrite, radio et télévision (par exemple, formation des journalistes).</t>
-  </si>
-  <si>
     <t>15164</t>
   </si>
   <si>
+    <t>15170</t>
+  </si>
+  <si>
     <t>Organisations et institutions pour l’égalité des femmes</t>
   </si>
   <si>
     <t>Soutien aux institutions et organisations (gouvernementales et non gouvernementales) qui œuvrent pour l’égalité homme-femme et l’autonomisation des femmes.</t>
   </si>
   <si>
-    <t>15170</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1336,328 +1309,250 @@
     <t>23010</t>
   </si>
   <si>
-    <t>Politique de l’énergie et gestion administrative</t>
-  </si>
-  <si>
-    <t>Politique de l’énergie, planification et programmes; aide aux ministères de l’énergie; renforcement des capacités institutionnelles et conseils; activités non spécifiées dans le domaine de l’énergie y compris les économies d’énergie.</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
     <t>23020</t>
   </si>
   <si>
-    <t>Production d’énergie (sources non renouvelables)</t>
-  </si>
-  <si>
-    <t>Centrales thermiques (lorsque la source de chaleur ne peut être déterminée); centrales alimentées au gaz et au charbon.</t>
-  </si>
-  <si>
     <t>23030</t>
   </si>
   <si>
-    <t>Production d’énergie (sources renouvelables)</t>
-  </si>
-  <si>
-    <t>Y compris politique et planification, programmes de développement, études et primes. Production de bois de chauffage et de charbon de bois devrait être incluse dans sylviculture (31261).</t>
-  </si>
-  <si>
     <t>23040</t>
   </si>
   <si>
-    <t>Transmission et distribution d’électricité</t>
-  </si>
-  <si>
-    <t>Distribution de la source d’énergie au consommateur; lignes de transmission.</t>
-  </si>
-  <si>
     <t>23050</t>
   </si>
   <si>
-    <t>Distribution de gaz</t>
-  </si>
-  <si>
-    <t>Distribution au consommateur.</t>
-  </si>
-  <si>
     <t>23061</t>
   </si>
   <si>
-    <t>Centrales alimentées au fuel</t>
-  </si>
-  <si>
-    <t>Y compris les centrales alimentées au gas-oil.</t>
-  </si>
-  <si>
     <t>23062</t>
   </si>
   <si>
-    <t>Centrales alimentées au gaz</t>
-  </si>
-  <si>
     <t>23063</t>
   </si>
   <si>
-    <t>Centrales alimentées au charbon</t>
-  </si>
-  <si>
     <t>23064</t>
   </si>
   <si>
+    <t>23065</t>
+  </si>
+  <si>
+    <t>23066</t>
+  </si>
+  <si>
+    <t>23067</t>
+  </si>
+  <si>
+    <t>23068</t>
+  </si>
+  <si>
+    <t>23069</t>
+  </si>
+  <si>
+    <t>23070</t>
+  </si>
+  <si>
+    <t>23081</t>
+  </si>
+  <si>
+    <t>23082</t>
+  </si>
+  <si>
+    <t>23110</t>
+  </si>
+  <si>
+    <t>Politique énergétique et gestion administrative</t>
+  </si>
+  <si>
+    <t>Politique et planification du secteur de l’énergie ; aide aux ministères de l’énergie ; conseils et renforcement des capacités institutionnelles ; activités non précisées.</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>23111</t>
+  </si>
+  <si>
+    <t>Politiques, planification et administration du secteur de l'énergie</t>
+  </si>
+  <si>
+    <t>23112</t>
+  </si>
+  <si>
+    <t>Réglementation de l'énergie</t>
+  </si>
+  <si>
+    <t>Réglementation du secteur de l'énergie, y compris l'approvisionnement d'électricité en gros et au détail.</t>
+  </si>
+  <si>
+    <t>23181</t>
+  </si>
+  <si>
+    <t>Éducation et formation dans le domaine de l'énergie</t>
+  </si>
+  <si>
+    <t>Tous les niveaux de formation ne figurant pas sous un autre code.</t>
+  </si>
+  <si>
+    <t>23182</t>
+  </si>
+  <si>
+    <t>Recherche dans le domaine de l'énergie</t>
+  </si>
+  <si>
+    <t>Y compris inventaires et études.</t>
+  </si>
+  <si>
+    <t>23183</t>
+  </si>
+  <si>
+    <t>Économies d'énergie et efficacité du côté de la demande</t>
+  </si>
+  <si>
+    <t>Tous les projets visant la réduction de la demande d’énergie, par exemple : modernisation des bâtiments et des industries, réseaux intelligents, compteurs et tarifs. Comprend également les cuisinières efficaces et les projets de biogaz.</t>
+  </si>
+  <si>
+    <t>23210</t>
+  </si>
+  <si>
+    <t>Production d’énergie, sources renouvelables - multiples technologies</t>
+  </si>
+  <si>
+    <t>Programmes de production d’énergie d’origine renouvelable qui ne peuvent être attribués à une seule technologie (codes 23220 à 23280 ci-après). La production de bois de chauffage/charbon de bois devrait figurer sous la rubrique sylviculture 31261.</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>23220</t>
+  </si>
+  <si>
+    <t>Centrales hydrauliques</t>
+  </si>
+  <si>
+    <t>Dont centrales flottantes.</t>
+  </si>
+  <si>
+    <t>23230</t>
+  </si>
+  <si>
+    <t>Énergie solaire</t>
+  </si>
+  <si>
+    <t>Solaire photovoltaïque, thermodynamique, chauffage solaire.</t>
+  </si>
+  <si>
+    <t>23240</t>
+  </si>
+  <si>
+    <t>Énergie éolienne</t>
+  </si>
+  <si>
+    <t>Éoliennes de pompage et production d’électricité.</t>
+  </si>
+  <si>
+    <t>23250</t>
+  </si>
+  <si>
+    <t>Énergie marine</t>
+  </si>
+  <si>
+    <t>Énergie thermique des mers, énergie marémotrice et houlomotrice.</t>
+  </si>
+  <si>
+    <t>23260</t>
+  </si>
+  <si>
+    <t>Énergie géothermique</t>
+  </si>
+  <si>
+    <t>Application de l’énergie géothermique pour produire de l’électricité ou production de chaleur à usage agricole, etc.</t>
+  </si>
+  <si>
+    <t>23270</t>
+  </si>
+  <si>
+    <t>Centrales à biocombustibles</t>
+  </si>
+  <si>
+    <t>Utilisation de matières solides et liquides issues de la biomasse pour la production directe d’électricité. Comprend également les biogaz produits par fermentation anaérobie (ex. : gaz de décharge, gaz issus des boues d’épuration, fermentation de végétaux des cultures énergétiques et de déjections animales) et par traitements thermiques (également connus sous l’appellation de gaz de synthèse) ; centrales brûlant des déchets municipaux biodégradables (déchets ménagers et déchets du tertiaire assimilables à des déchets ménagers, collectés dans des installations spécifiquement conçues pour leur élimination et leur récupération sous forme de liquides ou de gaz combustibles ou de chaleur). Voir code 23360 pour la production d’électricité, déchets non renouvelables.</t>
+  </si>
+  <si>
+    <t>23310</t>
+  </si>
+  <si>
+    <t>Production d’énergie, sources non renouvelables - non spécifié</t>
+  </si>
+  <si>
+    <t>Centrales thermiques dont la source d’énergie est indéterminée ; centrales mixtes gaz-charbon.</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>23320</t>
+  </si>
+  <si>
+    <t>Centrales au charbon</t>
+  </si>
+  <si>
+    <t>Centrales thermiques brûlant du charbon.</t>
+  </si>
+  <si>
+    <t>23330</t>
+  </si>
+  <si>
+    <t>Centrales au fioul</t>
+  </si>
+  <si>
+    <t>Centrales thermiques brûlant du fioul ou du gazole.</t>
+  </si>
+  <si>
+    <t>23340</t>
+  </si>
+  <si>
+    <t>Centrales au gaz naturel</t>
+  </si>
+  <si>
+    <t>Centrales thermiques brûlant du gaz naturel.</t>
+  </si>
+  <si>
+    <t>23350</t>
+  </si>
+  <si>
+    <t>Centrales thermiques classiques avec captage et stockage du carbone (CSC)</t>
+  </si>
+  <si>
+    <t>Centrales thermiques classiques exploitant une technologie de captage et de stockage des émissions de carbone (CSC). Les techniques de CSC non associées à la production d’électricité devraient figurer sous la rubrique 41020. Les activités de CSC ne sont pas éligibles à l’APD.</t>
+  </si>
+  <si>
+    <t>23360</t>
+  </si>
+  <si>
+    <t>Production d'électricité, déchets non renouvelables</t>
+  </si>
+  <si>
+    <t>Centrales brûlant des déchets industriels et municipaux non biodégradables.</t>
+  </si>
+  <si>
+    <t>23410</t>
+  </si>
+  <si>
+    <t>Centrales hybrides</t>
+  </si>
+  <si>
+    <t>Centrales fonctionnant avec des énergies renouvelables et non renouvelables.</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>23510</t>
+  </si>
+  <si>
     <t>Centrales nucléaires</t>
-  </si>
-  <si>
-    <t>Y compris la sécurité nucléaire. L’aide visant à favoriser une utilisation pacifique de l’énergie nucléaire est comptabilisable dans l’APD. À titre d’exemples, on citera : la construction ou le déclassement de centrales nucléaires à des fins civiles, le développement ou la fourniture d’isotopes médicaux, l’irradiation des aliments et d’autres applications industrielles et commerciales. Sont par contre exclues les activités de recherche sur les armes nucléaires et les applications militaires de la technologie nucléaire.</t>
-  </si>
-  <si>
-    <t>23065</t>
-  </si>
-  <si>
-    <t>Centrales et barrages hydroélectriques</t>
-  </si>
-  <si>
-    <t>Y compris les installations sur les barges.</t>
-  </si>
-  <si>
-    <t>23066</t>
-  </si>
-  <si>
-    <t>Énergie géothermique</t>
-  </si>
-  <si>
-    <t>23067</t>
-  </si>
-  <si>
-    <t>Énergie solaire</t>
-  </si>
-  <si>
-    <t>Y compris les cellules photovoltaïques et les pompes à énergie solaire.</t>
-  </si>
-  <si>
-    <t>23068</t>
-  </si>
-  <si>
-    <t>Énergie éolienne</t>
-  </si>
-  <si>
-    <t>Énergie éolienne pour l’hydrodynamique et la production d’électricité.</t>
-  </si>
-  <si>
-    <t>23069</t>
-  </si>
-  <si>
-    <t>Énergie marémotrice</t>
-  </si>
-  <si>
-    <t>Y compris la conversion de l’énergie thermique marine, la puissance des marées et des vagues.</t>
-  </si>
-  <si>
-    <t>23070</t>
-  </si>
-  <si>
-    <t>Biomasse</t>
-  </si>
-  <si>
-    <t>Technologies de densification et utilisation de la biomasse pour la production d’énergie directe, y compris le gaz obtenu par fermentation de la canne à sucre et d’autres résidus végétaux, et par anaérobie.</t>
-  </si>
-  <si>
-    <t>23081</t>
-  </si>
-  <si>
-    <t>Éducation et formation dans le domaine de l’énergie</t>
-  </si>
-  <si>
-    <t>Se rapporte à tous les sous-secteurs de l’énergie et à tous les niveaux de formation.</t>
-  </si>
-  <si>
-    <t>23082</t>
-  </si>
-  <si>
-    <t>Recherche dans le domaine de l’énergie</t>
-  </si>
-  <si>
-    <t>Y compris inventaires et études.</t>
-  </si>
-  <si>
-    <t>23110</t>
-  </si>
-  <si>
-    <t>Politique énergétique et gestion administrative</t>
-  </si>
-  <si>
-    <t>Politique et planification du secteur de l’énergie ; aide aux ministères de l’énergie ; conseils et renforcement des capacités institutionnelles ; activités non précisées.</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>23111</t>
-  </si>
-  <si>
-    <t>Politiques, planification et administration du secteur de l'énergie</t>
-  </si>
-  <si>
-    <t>23112</t>
-  </si>
-  <si>
-    <t>Réglementation de l'énergie</t>
-  </si>
-  <si>
-    <t>Réglementation du secteur de l'énergie, y compris l'approvisionnement d'électricité en gros et au détail.</t>
-  </si>
-  <si>
-    <t>23181</t>
-  </si>
-  <si>
-    <t>Éducation et formation dans le domaine de l'énergie</t>
-  </si>
-  <si>
-    <t>Tous les niveaux de formation ne figurant pas sous un autre code.</t>
-  </si>
-  <si>
-    <t>23182</t>
-  </si>
-  <si>
-    <t>Recherche dans le domaine de l'énergie</t>
-  </si>
-  <si>
-    <t>23183</t>
-  </si>
-  <si>
-    <t>Économies d'énergie et efficacité du côté de la demande</t>
-  </si>
-  <si>
-    <t>Tous les projets visant la réduction de la demande d’énergie, par exemple : modernisation des bâtiments et des industries, réseaux intelligents, compteurs et tarifs. Comprend également les cuisinières efficaces et les projets de biogaz.</t>
-  </si>
-  <si>
-    <t>23210</t>
-  </si>
-  <si>
-    <t>Production d’énergie, sources renouvelables - multiples technologies</t>
-  </si>
-  <si>
-    <t>Programmes de production d’énergie d’origine renouvelable qui ne peuvent être attribués à une seule technologie (codes 23220 à 23280 ci-après). La production de bois de chauffage/charbon de bois devrait figurer sous la rubrique sylviculture 31261.</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>23220</t>
-  </si>
-  <si>
-    <t>Centrales hydrauliques</t>
-  </si>
-  <si>
-    <t>Dont centrales flottantes.</t>
-  </si>
-  <si>
-    <t>23230</t>
-  </si>
-  <si>
-    <t>Solaire photovoltaïque, thermodynamique, chauffage solaire.</t>
-  </si>
-  <si>
-    <t>23240</t>
-  </si>
-  <si>
-    <t>Éoliennes de pompage et production d’électricité.</t>
-  </si>
-  <si>
-    <t>23250</t>
-  </si>
-  <si>
-    <t>Énergie marine</t>
-  </si>
-  <si>
-    <t>Énergie thermique des mers, énergie marémotrice et houlomotrice.</t>
-  </si>
-  <si>
-    <t>23260</t>
-  </si>
-  <si>
-    <t>Application de l’énergie géothermique pour produire de l’électricité ou production de chaleur à usage agricole, etc.</t>
-  </si>
-  <si>
-    <t>23270</t>
-  </si>
-  <si>
-    <t>Centrales à biocombustibles</t>
-  </si>
-  <si>
-    <t>Utilisation de matières solides et liquides issues de la biomasse pour la production directe d’électricité. Comprend également les biogaz produits par fermentation anaérobie (ex. : gaz de décharge, gaz issus des boues d’épuration, fermentation de végétaux des cultures énergétiques et de déjections animales) et par traitements thermiques (également connus sous l’appellation de gaz de synthèse) ; centrales brûlant des déchets municipaux biodégradables (déchets ménagers et déchets du tertiaire assimilables à des déchets ménagers, collectés dans des installations spécifiquement conçues pour leur élimination et leur récupération sous forme de liquides ou de gaz combustibles ou de chaleur). Voir code 23360 pour la production d’électricité, déchets non renouvelables.</t>
-  </si>
-  <si>
-    <t>23310</t>
-  </si>
-  <si>
-    <t>Production d’énergie, sources non renouvelables - non spécifié</t>
-  </si>
-  <si>
-    <t>Centrales thermiques dont la source d’énergie est indéterminée ; centrales mixtes gaz-charbon.</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>23320</t>
-  </si>
-  <si>
-    <t>Centrales au charbon</t>
-  </si>
-  <si>
-    <t>Centrales thermiques brûlant du charbon.</t>
-  </si>
-  <si>
-    <t>23330</t>
-  </si>
-  <si>
-    <t>Centrales au fioul</t>
-  </si>
-  <si>
-    <t>Centrales thermiques brûlant du fioul ou du gazole.</t>
-  </si>
-  <si>
-    <t>23340</t>
-  </si>
-  <si>
-    <t>Centrales au gaz naturel</t>
-  </si>
-  <si>
-    <t>Centrales thermiques brûlant du gaz naturel.</t>
-  </si>
-  <si>
-    <t>23350</t>
-  </si>
-  <si>
-    <t>Centrales thermiques classiques avec captage et stockage du carbone (CSC)</t>
-  </si>
-  <si>
-    <t>Centrales thermiques classiques exploitant une technologie de captage et de stockage des émissions de carbone (CSC). Les techniques de CSC non associées à la production d’électricité devraient figurer sous la rubrique 41020. Les activités de CSC ne sont pas éligibles à l’APD.</t>
-  </si>
-  <si>
-    <t>23360</t>
-  </si>
-  <si>
-    <t>Production d'électricité, déchets non renouvelables</t>
-  </si>
-  <si>
-    <t>Centrales brûlant des déchets industriels et municipaux non biodégradables.</t>
-  </si>
-  <si>
-    <t>23410</t>
-  </si>
-  <si>
-    <t>Centrales hybrides</t>
-  </si>
-  <si>
-    <t>Centrales fonctionnant avec des énergies renouvelables et non renouvelables.</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>23510</t>
   </si>
   <si>
     <t>Dont sûreté nucléaire.</t>
@@ -4195,28 +4090,22 @@
       <c r="A61" t="s">
         <v>194</v>
       </c>
-      <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" t="s">
-        <v>196</v>
-      </c>
       <c r="D61" t="s">
         <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
         <v>198</v>
-      </c>
-      <c r="B62" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" t="s">
-        <v>200</v>
       </c>
       <c r="D62" t="s">
         <v>169</v>
@@ -4227,13 +4116,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" t="s">
         <v>201</v>
-      </c>
-      <c r="B63" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" t="s">
-        <v>203</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -4244,13 +4133,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s">
         <v>204</v>
-      </c>
-      <c r="B64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" t="s">
-        <v>206</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -4261,13 +4150,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
         <v>207</v>
-      </c>
-      <c r="B65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" t="s">
-        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>169</v>
@@ -4278,13 +4167,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s">
         <v>210</v>
-      </c>
-      <c r="B66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C66" t="s">
-        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>169</v>
@@ -4295,13 +4184,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
         <v>213</v>
-      </c>
-      <c r="B67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" t="s">
-        <v>215</v>
       </c>
       <c r="D67" t="s">
         <v>169</v>
@@ -4312,13 +4201,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
         <v>216</v>
-      </c>
-      <c r="B68" t="s">
-        <v>217</v>
-      </c>
-      <c r="C68" t="s">
-        <v>218</v>
       </c>
       <c r="D68" t="s">
         <v>169</v>
@@ -4329,13 +4218,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s">
         <v>219</v>
-      </c>
-      <c r="B69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" t="s">
-        <v>221</v>
       </c>
       <c r="D69" t="s">
         <v>169</v>
@@ -4346,13 +4235,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
         <v>222</v>
-      </c>
-      <c r="B70" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" t="s">
-        <v>224</v>
       </c>
       <c r="D70" t="s">
         <v>169</v>
@@ -4363,13 +4252,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
         <v>225</v>
-      </c>
-      <c r="B71" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" t="s">
-        <v>227</v>
       </c>
       <c r="D71" t="s">
         <v>169</v>
@@ -4380,13 +4269,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="s">
         <v>228</v>
-      </c>
-      <c r="B72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" t="s">
-        <v>230</v>
       </c>
       <c r="D72" t="s">
         <v>169</v>
@@ -4397,13 +4286,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
         <v>231</v>
-      </c>
-      <c r="B73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" t="s">
-        <v>233</v>
       </c>
       <c r="D73" t="s">
         <v>169</v>
@@ -4414,13 +4303,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
         <v>234</v>
-      </c>
-      <c r="B74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" t="s">
-        <v>236</v>
       </c>
       <c r="D74" t="s">
         <v>169</v>
@@ -4431,13 +4320,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
         <v>237</v>
-      </c>
-      <c r="B75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" t="s">
-        <v>239</v>
       </c>
       <c r="D75" t="s">
         <v>169</v>
@@ -4448,13 +4337,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
         <v>240</v>
-      </c>
-      <c r="B76" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" t="s">
-        <v>242</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
@@ -4465,13 +4354,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" t="s">
         <v>243</v>
-      </c>
-      <c r="B77" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" t="s">
-        <v>245</v>
       </c>
       <c r="D77" t="s">
         <v>169</v>
@@ -4482,10 +4371,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D78" t="s">
         <v>169</v>
@@ -4496,30 +4385,24 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>248</v>
-      </c>
-      <c r="B79" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D80" t="s">
         <v>169</v>
@@ -4530,13 +4413,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
         <v>169</v>
@@ -4547,13 +4430,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
         <v>169</v>
@@ -4564,13 +4447,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
         <v>169</v>
@@ -4581,13 +4464,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D84" t="s">
         <v>169</v>
@@ -4598,13 +4481,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
         <v>169</v>
@@ -4615,13 +4498,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -4632,13 +4515,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D87" t="s">
         <v>169</v>
@@ -4649,10 +4532,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
         <v>169</v>
@@ -4663,13 +4546,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
         <v>169</v>
@@ -4680,13 +4563,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D90" t="s">
         <v>169</v>
@@ -4697,81 +4580,57 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>283</v>
-      </c>
-      <c r="B91" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D91" t="s">
         <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>286</v>
-      </c>
-      <c r="B92" t="s">
-        <v>281</v>
-      </c>
-      <c r="C92" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s">
         <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>291</v>
-      </c>
-      <c r="B94" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
         <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D95" t="s">
         <v>169</v>
@@ -4782,13 +4641,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
         <v>169</v>
@@ -4799,13 +4658,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D97" t="s">
         <v>169</v>
@@ -4816,13 +4675,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D98" t="s">
         <v>169</v>
@@ -4833,16 +4692,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4850,16 +4709,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4867,16 +4726,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -4884,16 +4743,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4901,16 +4760,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -4918,16 +4777,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4935,16 +4794,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4952,16 +4811,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D106" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4969,16 +4828,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4986,16 +4845,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D108" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -5003,16 +4862,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D109" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -5020,16 +4879,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B110" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D110" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -5037,16 +4896,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D111" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -5054,16 +4913,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -5071,16 +4930,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D113" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -5088,16 +4947,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B114" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D114" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -5105,16 +4964,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D115" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -5122,16 +4981,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B116" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C116" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D116" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -5139,16 +4998,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B117" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D117" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -5156,16 +5015,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -5173,13 +5032,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D119" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5187,13 +5046,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B120" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D120" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5201,16 +5060,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C121" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D121" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5218,16 +5077,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B122" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5235,16 +5094,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B123" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D123" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5252,16 +5111,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B124" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D124" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5269,16 +5128,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B125" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D125" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5286,16 +5145,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5303,16 +5162,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D127" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5320,16 +5179,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C128" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D128" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5337,16 +5196,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5354,16 +5213,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D130" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5371,16 +5230,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5388,16 +5247,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5405,16 +5264,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5422,16 +5281,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B134" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5439,16 +5298,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D135" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5456,13 +5315,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B136" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D136" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5470,16 +5329,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B137" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C137" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D137" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5487,13 +5346,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D138" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5501,16 +5360,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5518,16 +5377,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B140" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D140" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5535,16 +5394,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B141" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C141" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -5552,16 +5411,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B142" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D142" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -5569,16 +5428,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B143" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C143" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D143" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5586,296 +5445,203 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>439</v>
-      </c>
-      <c r="B144" t="s">
-        <v>440</v>
-      </c>
-      <c r="C144" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F144" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>443</v>
-      </c>
-      <c r="B145" t="s">
-        <v>444</v>
-      </c>
-      <c r="C145" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D145" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F145" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>446</v>
-      </c>
-      <c r="B146" t="s">
-        <v>447</v>
-      </c>
-      <c r="C146" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D146" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>449</v>
-      </c>
-      <c r="B147" t="s">
-        <v>450</v>
-      </c>
-      <c r="C147" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D147" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>452</v>
-      </c>
-      <c r="B148" t="s">
-        <v>453</v>
-      </c>
-      <c r="C148" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D148" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F148" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>455</v>
-      </c>
-      <c r="B149" t="s">
-        <v>456</v>
-      </c>
-      <c r="C149" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D149" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F149" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>458</v>
-      </c>
-      <c r="B150" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="D150" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>460</v>
-      </c>
-      <c r="B151" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="D151" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>462</v>
-      </c>
-      <c r="B152" t="s">
-        <v>463</v>
-      </c>
-      <c r="C152" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D152" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F152" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>465</v>
-      </c>
-      <c r="B153" t="s">
-        <v>466</v>
-      </c>
-      <c r="C153" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D153" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F153" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>468</v>
-      </c>
-      <c r="B154" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F154" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>470</v>
-      </c>
-      <c r="B155" t="s">
-        <v>471</v>
-      </c>
-      <c r="C155" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F155" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>473</v>
-      </c>
-      <c r="B156" t="s">
-        <v>474</v>
-      </c>
-      <c r="C156" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F156" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>476</v>
-      </c>
-      <c r="B157" t="s">
-        <v>477</v>
-      </c>
-      <c r="C157" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="D157" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F157" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>479</v>
-      </c>
-      <c r="B158" t="s">
-        <v>480</v>
-      </c>
-      <c r="C158" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="D158" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F158" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>482</v>
-      </c>
-      <c r="B159" t="s">
-        <v>483</v>
-      </c>
-      <c r="C159" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F159" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>485</v>
-      </c>
-      <c r="B160" t="s">
-        <v>486</v>
-      </c>
-      <c r="C160" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="D160" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="B161" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="C161" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="D161" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -5883,13 +5649,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="B162" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="D162" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5897,16 +5663,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="B163" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C163" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="D163" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -5914,16 +5680,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B164" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="D164" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -5931,16 +5697,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C165" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="D165" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -5948,16 +5714,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="C166" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="D166" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -5965,16 +5731,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="B167" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="D167" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -5982,16 +5748,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="B168" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -5999,16 +5765,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="B169" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C169" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="D169" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6016,16 +5782,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="B170" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C170" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="D170" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6033,16 +5799,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="B171" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="C171" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="D171" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6050,16 +5816,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s">
+        <v>483</v>
+      </c>
+      <c r="C172" t="s">
+        <v>484</v>
+      </c>
+      <c r="D172" t="s">
         <v>469</v>
-      </c>
-      <c r="C172" t="s">
-        <v>520</v>
-      </c>
-      <c r="D172" t="s">
-        <v>508</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -6067,16 +5833,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="B173" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="C173" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="D173" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -6084,16 +5850,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="C174" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="D174" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -6101,16 +5867,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="B175" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="C175" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="D175" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6118,16 +5884,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B176" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="C176" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D176" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6135,16 +5901,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="B177" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="C177" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="D177" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6152,16 +5918,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="B178" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="D178" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -6169,16 +5935,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="D179" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -6186,16 +5952,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="B180" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="C180" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D180" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -6203,16 +5969,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="B181" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="C181" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D181" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -6220,16 +5986,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="B182" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="C182" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="D182" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6237,16 +6003,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="D183" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6254,16 +6020,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="B184" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="C184" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="D184" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6271,16 +6037,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B185" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C185" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="D185" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6288,16 +6054,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="B186" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C186" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="D186" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6305,16 +6071,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="B187" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="C187" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="D187" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6322,16 +6088,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="B188" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="C188" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="D188" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6339,16 +6105,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="B189" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C189" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="D189" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6356,16 +6122,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="B190" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="C190" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="D190" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6373,13 +6139,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="B191" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="D191" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -6387,16 +6153,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="B192" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="C192" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="D192" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -6404,16 +6170,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="B193" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="C193" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="D193" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -6421,13 +6187,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="B194" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="D194" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -6435,13 +6201,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="B195" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="D195" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -6449,16 +6215,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="B196" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="C196" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="D196" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6466,16 +6232,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="B197" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="C197" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="D197" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6483,16 +6249,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="C198" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="D198" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6500,16 +6266,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="B199" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="C199" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="D199" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6517,16 +6283,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B200" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="C200" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="D200" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -6534,16 +6300,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B201" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="C201" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="D201" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -6551,16 +6317,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="B202" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="C202" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="D202" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -6568,16 +6334,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="B203" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="C203" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="D203" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -6585,16 +6351,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B204" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="C204" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="D204" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -6602,16 +6368,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="B205" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="C205" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="D205" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -6619,16 +6385,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="B206" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="C206" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="D206" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -6636,13 +6402,13 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="B207" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="D207" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -6650,16 +6416,16 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="B208" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="C208" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
       <c r="D208" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -6667,16 +6433,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="B209" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="C209" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="D209" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -6684,16 +6450,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="B210" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="C210" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="D210" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -6701,16 +6467,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="B211" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C211" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="D211" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -6718,16 +6484,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="B212" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="C212" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="D212" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -6735,16 +6501,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="B213" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="C213" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="D213" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -6752,16 +6518,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="B214" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="C214" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
       <c r="D214" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -6769,16 +6535,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="B215" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="C215" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
       <c r="D215" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -6786,16 +6552,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
       <c r="B216" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
       <c r="C216" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="D216" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -6803,13 +6569,13 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
       <c r="B217" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="D217" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -6817,16 +6583,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="B218" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="C218" t="s">
-        <v>660</v>
+        <v>625</v>
       </c>
       <c r="D218" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -6834,13 +6600,13 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="B219" t="s">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="D219" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -6848,16 +6614,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="B220" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="C220" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="D220" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -6865,16 +6631,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>667</v>
+        <v>632</v>
       </c>
       <c r="B221" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="C221" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="D221" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -6882,13 +6648,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="B222" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="D222" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -6896,16 +6662,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>672</v>
+        <v>637</v>
       </c>
       <c r="B223" t="s">
-        <v>673</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s">
-        <v>674</v>
+        <v>639</v>
       </c>
       <c r="D223" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -6913,16 +6679,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="C224" t="s">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="D224" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -6930,16 +6696,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>678</v>
+        <v>643</v>
       </c>
       <c r="B225" t="s">
-        <v>679</v>
+        <v>644</v>
       </c>
       <c r="C225" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="D225" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -6947,13 +6713,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="B226" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="D226" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -6961,16 +6727,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="B227" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="C227" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="D227" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -6978,13 +6744,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B228" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="D228" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -6992,16 +6758,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="B229" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="C229" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="D229" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -7009,16 +6775,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="B230" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="C230" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="D230" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -7026,16 +6792,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="B231" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
       <c r="C231" t="s">
-        <v>697</v>
+        <v>662</v>
       </c>
       <c r="D231" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -7043,16 +6809,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>698</v>
+        <v>663</v>
       </c>
       <c r="B232" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
       <c r="C232" t="s">
-        <v>700</v>
+        <v>665</v>
       </c>
       <c r="D232" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -7060,13 +6826,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
       <c r="B233" t="s">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="D233" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -7074,13 +6840,13 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="B234" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="D234" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -7088,16 +6854,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>705</v>
+        <v>670</v>
       </c>
       <c r="B235" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="C235" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="D235" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -7105,16 +6871,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>708</v>
+        <v>673</v>
       </c>
       <c r="B236" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
       <c r="C236" t="s">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="D236" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -7122,16 +6888,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>711</v>
+        <v>676</v>
       </c>
       <c r="B237" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="C237" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="D237" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -7139,13 +6905,13 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="B238" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="D238" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -7153,16 +6919,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>716</v>
+        <v>681</v>
       </c>
       <c r="B239" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="C239" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="D239" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -7170,16 +6936,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="B240" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="C240" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="D240" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -7187,16 +6953,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="B241" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="C241" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="D241" t="s">
-        <v>681</v>
+        <v>646</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -7204,16 +6970,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="B242" t="s">
-        <v>726</v>
+        <v>691</v>
       </c>
       <c r="C242" t="s">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="D242" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -7221,16 +6987,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>729</v>
+        <v>694</v>
       </c>
       <c r="B243" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
       <c r="C243" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="D243" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -7238,16 +7004,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>732</v>
+        <v>697</v>
       </c>
       <c r="B244" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
       <c r="C244" t="s">
-        <v>734</v>
+        <v>699</v>
       </c>
       <c r="D244" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7255,16 +7021,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="B245" t="s">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="C245" t="s">
-        <v>737</v>
+        <v>702</v>
       </c>
       <c r="D245" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7272,16 +7038,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>738</v>
+        <v>703</v>
       </c>
       <c r="B246" t="s">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="C246" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="D246" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7289,16 +7055,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="B247" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
       <c r="C247" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
       <c r="D247" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7306,16 +7072,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="B248" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="C248" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="D248" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7323,16 +7089,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="B249" t="s">
-        <v>748</v>
+        <v>713</v>
       </c>
       <c r="C249" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="D249" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7340,16 +7106,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="B250" t="s">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="C250" t="s">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="D250" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7357,16 +7123,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="B251" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="C251" t="s">
-        <v>755</v>
+        <v>720</v>
       </c>
       <c r="D251" t="s">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7374,16 +7140,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>756</v>
+        <v>721</v>
       </c>
       <c r="B252" t="s">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="C252" t="s">
-        <v>758</v>
+        <v>723</v>
       </c>
       <c r="D252" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -7391,16 +7157,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
       <c r="B253" t="s">
-        <v>761</v>
+        <v>726</v>
       </c>
       <c r="C253" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="D253" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -7408,16 +7174,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>764</v>
+        <v>729</v>
       </c>
       <c r="B254" t="s">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="C254" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="D254" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -7425,16 +7191,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="B255" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="C255" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
       <c r="D255" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -7442,16 +7208,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="B256" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
       <c r="C256" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="D256" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -7459,16 +7225,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>773</v>
+        <v>738</v>
       </c>
       <c r="B257" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="C257" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
       <c r="D257" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -7476,16 +7242,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>776</v>
+        <v>741</v>
       </c>
       <c r="B258" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="C258" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="D258" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -7493,13 +7259,13 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>779</v>
+        <v>744</v>
       </c>
       <c r="B259" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="D259" t="s">
-        <v>781</v>
+        <v>746</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -7507,16 +7273,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
       <c r="B260" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="C260" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="D260" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -7524,16 +7290,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="B261" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
       <c r="C261" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
       <c r="D261" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -7541,16 +7307,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="B262" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="C262" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="D262" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -7558,16 +7324,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="B263" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="C263" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="D263" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -7575,30 +7341,30 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="B264" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="C264" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="D264" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F264" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="B265" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="D265" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -7606,16 +7372,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="B266" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="C266" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="D266" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -7623,13 +7389,13 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="B267" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="D267" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -7637,16 +7403,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="B268" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
       <c r="C268" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="D268" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -7654,16 +7420,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="B269" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="C269" t="s">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="D269" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -7671,16 +7437,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>812</v>
+        <v>777</v>
       </c>
       <c r="B270" t="s">
-        <v>813</v>
+        <v>778</v>
       </c>
       <c r="C270" t="s">
-        <v>814</v>
+        <v>779</v>
       </c>
       <c r="D270" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -7688,16 +7454,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
       <c r="B271" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="C271" t="s">
-        <v>817</v>
+        <v>782</v>
       </c>
       <c r="D271" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -7705,16 +7471,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>818</v>
+        <v>783</v>
       </c>
       <c r="B272" t="s">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="C272" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="D272" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -7722,16 +7488,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="B273" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="C273" t="s">
-        <v>822</v>
+        <v>787</v>
       </c>
       <c r="D273" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -7739,16 +7505,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="B274" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="C274" t="s">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="D274" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -7756,16 +7522,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="B275" t="s">
-        <v>827</v>
+        <v>792</v>
       </c>
       <c r="C275" t="s">
-        <v>828</v>
+        <v>793</v>
       </c>
       <c r="D275" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -7773,13 +7539,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="B276" t="s">
-        <v>830</v>
+        <v>795</v>
       </c>
       <c r="D276" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -7787,13 +7553,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>831</v>
+        <v>796</v>
       </c>
       <c r="B277" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="D277" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -7801,13 +7567,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="B278" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="D278" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -7815,16 +7581,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="B279" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
       <c r="C279" t="s">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="D279" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -7832,16 +7598,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="B280" t="s">
-        <v>839</v>
+        <v>804</v>
       </c>
       <c r="C280" t="s">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="D280" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -7849,16 +7615,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="B281" t="s">
-        <v>842</v>
+        <v>807</v>
       </c>
       <c r="C281" t="s">
-        <v>843</v>
+        <v>808</v>
       </c>
       <c r="D281" t="s">
-        <v>844</v>
+        <v>809</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -7866,16 +7632,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="B282" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
       <c r="C282" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
       <c r="D282" t="s">
-        <v>848</v>
+        <v>813</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -7883,16 +7649,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="B283" t="s">
-        <v>850</v>
+        <v>815</v>
       </c>
       <c r="C283" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
       <c r="D283" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -7900,16 +7666,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>853</v>
+        <v>818</v>
       </c>
       <c r="B284" t="s">
-        <v>854</v>
+        <v>819</v>
       </c>
       <c r="C284" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="D284" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -7917,16 +7683,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>856</v>
+        <v>821</v>
       </c>
       <c r="B285" t="s">
-        <v>857</v>
+        <v>822</v>
       </c>
       <c r="C285" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="D285" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -7934,13 +7700,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="B286" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="D286" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -7948,16 +7714,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>862</v>
+        <v>827</v>
       </c>
       <c r="B287" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="C287" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="D287" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -7965,13 +7731,13 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="B288" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="D288" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F288" t="s">
         <v>10</v>
@@ -7979,16 +7745,16 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="B289" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="C289" t="s">
-        <v>869</v>
+        <v>834</v>
       </c>
       <c r="D289" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F289" t="s">
         <v>10</v>
@@ -7996,16 +7762,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="B290" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="C290" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="D290" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F290" t="s">
         <v>10</v>
@@ -8013,16 +7779,16 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="B291" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="C291" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="D291" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="F291" t="s">
         <v>10</v>
@@ -8030,16 +7796,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="B292" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="C292" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="D292" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="F292" t="s">
         <v>10</v>
@@ -8047,16 +7813,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="B293" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="C293" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="D293" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -8064,16 +7830,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="B294" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="C294" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="D294" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="F294" t="s">
         <v>10</v>
@@ -8081,16 +7847,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="B295" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="C295" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="D295" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="F295" t="s">
         <v>10</v>
@@ -8098,33 +7864,33 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="B296" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="C296" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="D296" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="F296" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="B297" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="C297" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
       <c r="D297" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="F297" t="s">
         <v>10</v>
@@ -8132,13 +7898,13 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="B298" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="D298" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="F298" t="s">
         <v>10</v>
@@ -8146,49 +7912,49 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="D299" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="F299" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
       <c r="D300" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="F300" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>903</v>
+        <v>868</v>
       </c>
       <c r="D301" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="F301" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="B302" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="C302" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="D302" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F302" t="s">
         <v>10</v>
@@ -8196,16 +7962,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>908</v>
+        <v>873</v>
       </c>
       <c r="B303" t="s">
-        <v>909</v>
+        <v>874</v>
       </c>
       <c r="C303" t="s">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="D303" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F303" t="s">
         <v>10</v>
@@ -8213,16 +7979,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>911</v>
+        <v>876</v>
       </c>
       <c r="B304" t="s">
-        <v>912</v>
+        <v>877</v>
       </c>
       <c r="C304" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="D304" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F304" t="s">
         <v>10</v>
@@ -8230,16 +7996,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>914</v>
+        <v>879</v>
       </c>
       <c r="B305" t="s">
-        <v>915</v>
+        <v>880</v>
       </c>
       <c r="C305" t="s">
-        <v>916</v>
+        <v>881</v>
       </c>
       <c r="D305" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F305" t="s">
         <v>10</v>
@@ -8247,16 +8013,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="B306" t="s">
-        <v>918</v>
+        <v>883</v>
       </c>
       <c r="C306" t="s">
-        <v>919</v>
+        <v>884</v>
       </c>
       <c r="D306" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F306" t="s">
         <v>10</v>
@@ -8264,16 +8030,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>920</v>
+        <v>885</v>
       </c>
       <c r="B307" t="s">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="C307" t="s">
-        <v>922</v>
+        <v>887</v>
       </c>
       <c r="D307" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F307" t="s">
         <v>10</v>
@@ -8281,16 +8047,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>923</v>
+        <v>888</v>
       </c>
       <c r="B308" t="s">
-        <v>924</v>
+        <v>889</v>
       </c>
       <c r="C308" t="s">
-        <v>925</v>
+        <v>890</v>
       </c>
       <c r="D308" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F308" t="s">
         <v>10</v>
@@ -8298,16 +8064,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>926</v>
+        <v>891</v>
       </c>
       <c r="B309" t="s">
-        <v>927</v>
+        <v>892</v>
       </c>
       <c r="C309" t="s">
-        <v>928</v>
+        <v>893</v>
       </c>
       <c r="D309" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F309" t="s">
         <v>10</v>
@@ -8315,16 +8081,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="B310" t="s">
-        <v>930</v>
+        <v>895</v>
       </c>
       <c r="C310" t="s">
-        <v>931</v>
+        <v>896</v>
       </c>
       <c r="D310" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -8332,16 +8098,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>932</v>
+        <v>897</v>
       </c>
       <c r="B311" t="s">
-        <v>933</v>
+        <v>898</v>
       </c>
       <c r="C311" t="s">
-        <v>934</v>
+        <v>899</v>
       </c>
       <c r="D311" t="s">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="F311" t="s">
         <v>10</v>
@@ -8349,16 +8115,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>936</v>
+        <v>901</v>
       </c>
       <c r="B312" t="s">
-        <v>937</v>
+        <v>902</v>
       </c>
       <c r="C312" t="s">
-        <v>938</v>
+        <v>903</v>
       </c>
       <c r="D312" t="s">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>

--- a/api/xlsx/fr/Sector.xlsx
+++ b/api/xlsx/fr/Sector.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="944">
   <si>
     <t>code</t>
   </si>
@@ -601,6 +601,12 @@
     <t>15120</t>
   </si>
   <si>
+    <t>Gestion financière du secteur public</t>
+  </si>
+  <si>
+    <t>Renforcement de la comptabilité financière et fiscale; gestion des dépenses publiques; amélioration des systèmes budgétaires; procédures d’évaluation des impôts; préparation du budget; audits sur le terrain; mesures contre le gaspillage, la fraude et la corruption.</t>
+  </si>
+  <si>
     <t>withdrawn</t>
   </si>
   <si>
@@ -757,6 +763,12 @@
     <t>15140</t>
   </si>
   <si>
+    <t>Administration gouvernementale</t>
+  </si>
+  <si>
+    <t>Systèmes gouvernementaux, y compris parlement, administration locale; décentralisation; fonction publique et réformes de la fonction publique. Y compris services généraux gouvernementaux (ou mandatés par le gouvernement), par exemple police, lutte contre l’incendie; cartographie, météorologie, métrologie, levés aériens; bâtiments administratifs.</t>
+  </si>
+  <si>
     <t>15142</t>
   </si>
   <si>
@@ -856,24 +868,39 @@
     <t>15161</t>
   </si>
   <si>
+    <t>Élections</t>
+  </si>
+  <si>
+    <t>Soutien et suivi des processus électoraux; éducation civique des électeurs [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
+  </si>
+  <si>
     <t>15162</t>
   </si>
   <si>
+    <t>Surveillance de l’application des droits de la personne; soutien aux organismes nationaux et régionaux des droits de la personne; protection des minorités ethniques, religieuses et culturelles [autre que celle en rapport avec le maintien de la paix des NU (15230)].</t>
+  </si>
+  <si>
     <t>15163</t>
   </si>
   <si>
+    <t>Liberté de l’information</t>
+  </si>
+  <si>
+    <t>Diffusion non censurée de l’information sur les questions publiques, y compris les activités qui améliorent le professionnalisme et l’intégrité des médias : presse écrite, radio et télévision (par exemple, formation des journalistes).</t>
+  </si>
+  <si>
     <t>15164</t>
   </si>
   <si>
+    <t>Organisations et institutions pour l’égalité des femmes</t>
+  </si>
+  <si>
+    <t>Soutien aux institutions et organisations (gouvernementales et non gouvernementales) qui œuvrent pour l’égalité homme-femme et l’autonomisation des femmes.</t>
+  </si>
+  <si>
     <t>15170</t>
   </si>
   <si>
-    <t>Organisations et institutions pour l’égalité des femmes</t>
-  </si>
-  <si>
-    <t>Soutien aux institutions et organisations (gouvernementales et non gouvernementales) qui œuvrent pour l’égalité homme-femme et l’autonomisation des femmes.</t>
-  </si>
-  <si>
     <t>15180</t>
   </si>
   <si>
@@ -1309,57 +1336,150 @@
     <t>23010</t>
   </si>
   <si>
+    <t>Politique de l’énergie et gestion administrative</t>
+  </si>
+  <si>
+    <t>Politique de l’énergie, planification et programmes; aide aux ministères de l’énergie; renforcement des capacités institutionnelles et conseils; activités non spécifiées dans le domaine de l’énergie y compris les économies d’énergie.</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
     <t>23020</t>
   </si>
   <si>
+    <t>Production d’énergie (sources non renouvelables)</t>
+  </si>
+  <si>
+    <t>Centrales thermiques (lorsque la source de chaleur ne peut être déterminée); centrales alimentées au gaz et au charbon.</t>
+  </si>
+  <si>
     <t>23030</t>
   </si>
   <si>
+    <t>Production d’énergie (sources renouvelables)</t>
+  </si>
+  <si>
+    <t>Y compris politique et planification, programmes de développement, études et primes. Production de bois de chauffage et de charbon de bois devrait être incluse dans sylviculture (31261).</t>
+  </si>
+  <si>
     <t>23040</t>
   </si>
   <si>
+    <t>Transmission et distribution d’électricité</t>
+  </si>
+  <si>
+    <t>Distribution de la source d’énergie au consommateur; lignes de transmission.</t>
+  </si>
+  <si>
     <t>23050</t>
   </si>
   <si>
+    <t>Distribution de gaz</t>
+  </si>
+  <si>
+    <t>Distribution au consommateur.</t>
+  </si>
+  <si>
     <t>23061</t>
   </si>
   <si>
+    <t>Centrales alimentées au fuel</t>
+  </si>
+  <si>
+    <t>Y compris les centrales alimentées au gas-oil.</t>
+  </si>
+  <si>
     <t>23062</t>
   </si>
   <si>
+    <t>Centrales alimentées au gaz</t>
+  </si>
+  <si>
     <t>23063</t>
   </si>
   <si>
+    <t>Centrales alimentées au charbon</t>
+  </si>
+  <si>
     <t>23064</t>
   </si>
   <si>
+    <t>Centrales nucléaires</t>
+  </si>
+  <si>
+    <t>Y compris la sécurité nucléaire. L’aide visant à favoriser une utilisation pacifique de l’énergie nucléaire est comptabilisable dans l’APD. À titre d’exemples, on citera : la construction ou le déclassement de centrales nucléaires à des fins civiles, le développement ou la fourniture d’isotopes médicaux, l’irradiation des aliments et d’autres applications industrielles et commerciales. Sont par contre exclues les activités de recherche sur les armes nucléaires et les applications militaires de la technologie nucléaire.</t>
+  </si>
+  <si>
     <t>23065</t>
   </si>
   <si>
+    <t>Centrales et barrages hydroélectriques</t>
+  </si>
+  <si>
+    <t>Y compris les installations sur les barges.</t>
+  </si>
+  <si>
     <t>23066</t>
   </si>
   <si>
+    <t>Énergie géothermique</t>
+  </si>
+  <si>
     <t>23067</t>
   </si>
   <si>
+    <t>Énergie solaire</t>
+  </si>
+  <si>
+    <t>Y compris les cellules photovoltaïques et les pompes à énergie solaire.</t>
+  </si>
+  <si>
     <t>23068</t>
   </si>
   <si>
+    <t>Énergie éolienne</t>
+  </si>
+  <si>
+    <t>Énergie éolienne pour l’hydrodynamique et la production d’électricité.</t>
+  </si>
+  <si>
     <t>23069</t>
   </si>
   <si>
+    <t>Énergie marémotrice</t>
+  </si>
+  <si>
+    <t>Y compris la conversion de l’énergie thermique marine, la puissance des marées et des vagues.</t>
+  </si>
+  <si>
     <t>23070</t>
   </si>
   <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>Technologies de densification et utilisation de la biomasse pour la production d’énergie directe, y compris le gaz obtenu par fermentation de la canne à sucre et d’autres résidus végétaux, et par anaérobie.</t>
+  </si>
+  <si>
     <t>23081</t>
   </si>
   <si>
+    <t>Éducation et formation dans le domaine de l’énergie</t>
+  </si>
+  <si>
+    <t>Se rapporte à tous les sous-secteurs de l’énergie et à tous les niveaux de formation.</t>
+  </si>
+  <si>
     <t>23082</t>
   </si>
   <si>
+    <t>Recherche dans le domaine de l’énergie</t>
+  </si>
+  <si>
+    <t>Y compris inventaires et études.</t>
+  </si>
+  <si>
     <t>23110</t>
   </si>
   <si>
@@ -1402,9 +1522,6 @@
     <t>Recherche dans le domaine de l'énergie</t>
   </si>
   <si>
-    <t>Y compris inventaires et études.</t>
-  </si>
-  <si>
     <t>23183</t>
   </si>
   <si>
@@ -1438,18 +1555,12 @@
     <t>23230</t>
   </si>
   <si>
-    <t>Énergie solaire</t>
-  </si>
-  <si>
     <t>Solaire photovoltaïque, thermodynamique, chauffage solaire.</t>
   </si>
   <si>
     <t>23240</t>
   </si>
   <si>
-    <t>Énergie éolienne</t>
-  </si>
-  <si>
     <t>Éoliennes de pompage et production d’électricité.</t>
   </si>
   <si>
@@ -1465,9 +1576,6 @@
     <t>23260</t>
   </si>
   <si>
-    <t>Énergie géothermique</t>
-  </si>
-  <si>
     <t>Application de l’énergie géothermique pour produire de l’électricité ou production de chaleur à usage agricole, etc.</t>
   </si>
   <si>
@@ -1552,9 +1660,6 @@
     <t>23510</t>
   </si>
   <si>
-    <t>Centrales nucléaires</t>
-  </si>
-  <si>
     <t>Dont sûreté nucléaire.</t>
   </si>
   <si>
@@ -2614,13 +2719,28 @@
     <t>92010</t>
   </si>
   <si>
+    <t>En faveur des ONG nationales</t>
+  </si>
+  <si>
+    <t>Dans le pays donneur</t>
+  </si>
+  <si>
     <t>920</t>
   </si>
   <si>
     <t>92020</t>
   </si>
   <si>
+    <t>En faveur des ONG internationales</t>
+  </si>
+  <si>
     <t>92030</t>
+  </si>
+  <si>
+    <t>En faveur des ONG locales et régionales</t>
+  </si>
+  <si>
+    <t>Dans le pays ou la région bénéficiaires.</t>
   </si>
   <si>
     <t>93010</t>
@@ -4090,22 +4210,28 @@
       <c r="A61" t="s">
         <v>194</v>
       </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
       <c r="D61" t="s">
         <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
         <v>169</v>
@@ -4116,13 +4242,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
         <v>169</v>
@@ -4133,13 +4259,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
         <v>169</v>
@@ -4150,13 +4276,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>169</v>
@@ -4167,13 +4293,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>169</v>
@@ -4184,13 +4310,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
         <v>169</v>
@@ -4201,13 +4327,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
         <v>169</v>
@@ -4218,13 +4344,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
         <v>169</v>
@@ -4235,13 +4361,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
         <v>169</v>
@@ -4252,13 +4378,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D71" t="s">
         <v>169</v>
@@ -4269,13 +4395,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
         <v>169</v>
@@ -4286,13 +4412,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
         <v>169</v>
@@ -4303,13 +4429,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
         <v>169</v>
@@ -4320,13 +4446,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
         <v>169</v>
@@ -4337,13 +4463,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
         <v>169</v>
@@ -4354,13 +4480,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
         <v>169</v>
@@ -4371,10 +4497,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D78" t="s">
         <v>169</v>
@@ -4385,24 +4511,30 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>250</v>
       </c>
       <c r="D79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
         <v>169</v>
@@ -4413,13 +4545,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
         <v>169</v>
@@ -4430,13 +4562,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D82" t="s">
         <v>169</v>
@@ -4447,13 +4579,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
         <v>169</v>
@@ -4464,13 +4596,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D84" t="s">
         <v>169</v>
@@ -4481,13 +4613,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D85" t="s">
         <v>169</v>
@@ -4498,13 +4630,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -4515,13 +4647,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
         <v>169</v>
@@ -4532,10 +4664,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
         <v>169</v>
@@ -4546,13 +4678,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>169</v>
@@ -4563,13 +4695,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>169</v>
@@ -4580,57 +4712,81 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="B91" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" t="s">
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" t="s">
+        <v>287</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>290</v>
       </c>
       <c r="D93" t="s">
         <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" t="s">
+        <v>293</v>
       </c>
       <c r="D94" t="s">
         <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
         <v>169</v>
@@ -4641,13 +4797,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
         <v>169</v>
@@ -4658,13 +4814,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D97" t="s">
         <v>169</v>
@@ -4675,13 +4831,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
         <v>169</v>
@@ -4692,16 +4848,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4709,16 +4865,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -4726,16 +4882,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -4743,16 +4899,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" t="s">
         <v>307</v>
-      </c>
-      <c r="D102" t="s">
-        <v>298</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -4760,16 +4916,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C103" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D103" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -4777,16 +4933,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -4794,16 +4950,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B105" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -4811,16 +4967,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -4828,16 +4984,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D107" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -4845,16 +5001,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" t="s">
         <v>326</v>
-      </c>
-      <c r="D108" t="s">
-        <v>317</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -4862,16 +5018,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -4879,16 +5035,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -4896,16 +5052,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -4913,16 +5069,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -4930,16 +5086,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -4947,16 +5103,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -4964,16 +5120,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -4981,16 +5137,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D116" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -4998,16 +5154,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -5015,16 +5171,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -5032,13 +5188,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5046,13 +5202,13 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D120" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5060,16 +5216,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C121" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5077,16 +5233,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D122" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5094,16 +5250,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C123" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="D123" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5111,16 +5267,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D124" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5128,16 +5284,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5145,16 +5301,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B126" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C126" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" t="s">
         <v>379</v>
-      </c>
-      <c r="D126" t="s">
-        <v>370</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5162,16 +5318,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D127" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5179,16 +5335,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5196,16 +5352,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B129" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5213,16 +5369,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5230,16 +5386,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5247,16 +5403,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B132" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C132" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D132" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5264,16 +5420,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5281,16 +5437,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C134" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5298,16 +5454,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D135" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5315,13 +5471,13 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -5329,16 +5485,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C137" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D137" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -5346,13 +5502,13 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -5360,16 +5516,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -5377,16 +5533,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -5394,16 +5550,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" t="s">
+        <v>431</v>
+      </c>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" t="s">
         <v>421</v>
-      </c>
-      <c r="B141" t="s">
-        <v>422</v>
-      </c>
-      <c r="C141" t="s">
-        <v>423</v>
-      </c>
-      <c r="D141" t="s">
-        <v>412</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -5411,16 +5567,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="D142" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -5428,16 +5584,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C143" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D143" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -5445,203 +5601,296 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>430</v>
+        <v>439</v>
+      </c>
+      <c r="B144" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" t="s">
+        <v>441</v>
       </c>
       <c r="D144" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>443</v>
+      </c>
+      <c r="B145" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" t="s">
+        <v>445</v>
       </c>
       <c r="D145" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>446</v>
+      </c>
+      <c r="B146" t="s">
+        <v>447</v>
+      </c>
+      <c r="C146" t="s">
+        <v>448</v>
       </c>
       <c r="D146" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>449</v>
+      </c>
+      <c r="B147" t="s">
+        <v>450</v>
+      </c>
+      <c r="C147" t="s">
+        <v>451</v>
       </c>
       <c r="D147" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>452</v>
+      </c>
+      <c r="B148" t="s">
+        <v>453</v>
+      </c>
+      <c r="C148" t="s">
+        <v>454</v>
       </c>
       <c r="D148" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>455</v>
+      </c>
+      <c r="B149" t="s">
+        <v>456</v>
+      </c>
+      <c r="C149" t="s">
+        <v>457</v>
       </c>
       <c r="D149" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>458</v>
+      </c>
+      <c r="B150" t="s">
+        <v>459</v>
       </c>
       <c r="D150" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F150" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>460</v>
+      </c>
+      <c r="B151" t="s">
+        <v>461</v>
       </c>
       <c r="D151" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>462</v>
+      </c>
+      <c r="B152" t="s">
+        <v>463</v>
+      </c>
+      <c r="C152" t="s">
+        <v>464</v>
       </c>
       <c r="D152" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F152" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>440</v>
+        <v>465</v>
+      </c>
+      <c r="B153" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" t="s">
+        <v>467</v>
       </c>
       <c r="D153" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F153" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>441</v>
+        <v>468</v>
+      </c>
+      <c r="B154" t="s">
+        <v>469</v>
       </c>
       <c r="D154" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
+        <v>470</v>
+      </c>
+      <c r="B155" t="s">
+        <v>471</v>
+      </c>
+      <c r="C155" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" t="s">
         <v>442</v>
       </c>
-      <c r="D155" t="s">
-        <v>431</v>
-      </c>
       <c r="F155" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>443</v>
+        <v>473</v>
+      </c>
+      <c r="B156" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" t="s">
+        <v>475</v>
       </c>
       <c r="D156" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>444</v>
+        <v>476</v>
+      </c>
+      <c r="B157" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" t="s">
+        <v>478</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>445</v>
+        <v>479</v>
+      </c>
+      <c r="B158" t="s">
+        <v>480</v>
+      </c>
+      <c r="C158" t="s">
+        <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>446</v>
+        <v>482</v>
+      </c>
+      <c r="B159" t="s">
+        <v>483</v>
+      </c>
+      <c r="C159" t="s">
+        <v>484</v>
       </c>
       <c r="D159" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>447</v>
+        <v>485</v>
+      </c>
+      <c r="B160" t="s">
+        <v>486</v>
+      </c>
+      <c r="C160" t="s">
+        <v>487</v>
       </c>
       <c r="D160" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="B161" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="C161" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -5649,13 +5898,13 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -5663,16 +5912,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="B163" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="C163" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -5680,16 +5929,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="C164" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -5697,16 +5946,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="B165" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="C165" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -5714,16 +5963,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="B166" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="C166" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -5731,16 +5980,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="B167" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="C167" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="D167" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -5748,16 +5997,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="B168" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="D168" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -5765,16 +6014,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="B169" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C169" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="D169" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -5782,16 +6031,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="B170" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="D170" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -5799,16 +6048,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="B171" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="C171" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="D171" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -5816,16 +6065,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="B172" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C172" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="D172" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -5833,16 +6082,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="B173" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="C173" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="D173" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -5850,16 +6099,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B174" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="C174" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -5867,16 +6116,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="B175" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="C175" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -5884,16 +6133,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B176" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="C176" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -5901,16 +6150,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="B177" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="C177" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -5918,16 +6167,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="C178" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -5935,16 +6184,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="C179" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="D179" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -5952,16 +6201,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="B180" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="C180" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="D180" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -5969,16 +6218,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="B181" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="C181" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="D181" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -5986,16 +6235,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="D182" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -6003,16 +6252,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="B183" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="D183" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -6020,16 +6269,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="C184" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="D184" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -6037,16 +6286,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B185" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="C185" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="D185" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -6054,16 +6303,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B186" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="D186" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -6071,16 +6320,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="B187" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="C187" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="D187" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -6088,16 +6337,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B188" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C188" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="D188" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -6105,16 +6354,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B189" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="C189" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="D189" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -6122,16 +6371,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B190" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="C190" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="D190" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -6139,13 +6388,13 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="B191" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="D191" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -6153,16 +6402,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="B192" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="C192" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="D192" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -6170,16 +6419,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B193" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="C193" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="D193" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -6187,13 +6436,13 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="B194" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="D194" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -6201,13 +6450,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
       <c r="B195" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="D195" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -6215,16 +6464,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="B196" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
       <c r="C196" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="D196" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -6232,16 +6481,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="B197" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="C197" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="D197" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -6249,16 +6498,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="B198" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="D198" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -6266,16 +6515,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>567</v>
+        <v>602</v>
       </c>
       <c r="B199" t="s">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -6283,16 +6532,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="B200" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="C200" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="D200" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -6300,16 +6549,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>573</v>
+        <v>608</v>
       </c>
       <c r="B201" t="s">
-        <v>574</v>
+        <v>609</v>
       </c>
       <c r="C201" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="D201" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -6317,16 +6566,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>576</v>
+        <v>611</v>
       </c>
       <c r="B202" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="C202" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="D202" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -6334,16 +6583,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="B203" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="D203" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -6351,16 +6600,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="B204" t="s">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="C204" t="s">
-        <v>584</v>
+        <v>619</v>
       </c>
       <c r="D204" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -6368,16 +6617,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="B205" t="s">
-        <v>586</v>
+        <v>621</v>
       </c>
       <c r="C205" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="D205" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -6385,16 +6634,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="B206" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="C206" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D206" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -6402,13 +6651,13 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="B207" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="D207" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -6416,16 +6665,16 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="B208" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="C208" t="s">
+        <v>630</v>
+      </c>
+      <c r="D208" t="s">
         <v>595</v>
-      </c>
-      <c r="D208" t="s">
-        <v>560</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -6433,16 +6682,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="B209" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="C209" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="D209" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -6450,16 +6699,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="B210" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="C210" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="D210" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -6467,16 +6716,16 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="B211" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="D211" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -6484,16 +6733,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="C212" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="D212" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -6501,16 +6750,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="B213" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="C213" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -6518,16 +6767,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="B214" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="C214" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="D214" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -6535,16 +6784,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="B215" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="C215" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="D215" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -6552,16 +6801,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="B216" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="C216" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="D216" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -6569,13 +6818,13 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="B217" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="D217" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -6583,16 +6832,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="B218" t="s">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="C218" t="s">
-        <v>625</v>
+        <v>660</v>
       </c>
       <c r="D218" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -6600,13 +6849,13 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>626</v>
+        <v>661</v>
       </c>
       <c r="B219" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="D219" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -6614,16 +6863,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="B220" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="C220" t="s">
-        <v>630</v>
+        <v>665</v>
       </c>
       <c r="D220" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -6631,16 +6880,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="B221" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
       <c r="C221" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="D221" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -6648,13 +6897,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="B222" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="D222" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -6662,16 +6911,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="B223" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="C223" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
       <c r="D223" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -6679,16 +6928,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="B224" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="C224" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="D224" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -6696,16 +6945,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="B225" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="C225" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="D225" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -6713,13 +6962,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="B226" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="D226" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -6727,16 +6976,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="B227" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="C227" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="D227" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -6744,13 +6993,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="B228" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
       <c r="D228" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -6758,16 +7007,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="B229" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="C229" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="D229" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -6775,16 +7024,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="B230" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="C230" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="D230" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -6792,16 +7041,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="B231" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="C231" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="D231" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -6809,16 +7058,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="B232" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="C232" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="D232" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -6826,13 +7075,13 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="B233" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="D233" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -6840,13 +7089,13 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="B234" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="D234" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -6854,16 +7103,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="B235" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="C235" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="D235" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -6871,16 +7120,16 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="B236" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="C236" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="D236" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -6888,16 +7137,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
       <c r="B237" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="C237" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="D237" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -6905,13 +7154,13 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="B238" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="D238" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -6919,16 +7168,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
+        <v>716</v>
+      </c>
+      <c r="B239" t="s">
+        <v>717</v>
+      </c>
+      <c r="C239" t="s">
+        <v>718</v>
+      </c>
+      <c r="D239" t="s">
         <v>681</v>
-      </c>
-      <c r="B239" t="s">
-        <v>682</v>
-      </c>
-      <c r="C239" t="s">
-        <v>683</v>
-      </c>
-      <c r="D239" t="s">
-        <v>646</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -6936,16 +7185,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="B240" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="C240" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="D240" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -6953,16 +7202,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="B241" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="C241" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="D241" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -6970,16 +7219,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="B242" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="C242" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="D242" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -6987,16 +7236,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>694</v>
+        <v>729</v>
       </c>
       <c r="B243" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
       <c r="C243" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="D243" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -7004,16 +7253,16 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="B244" t="s">
-        <v>698</v>
+        <v>733</v>
       </c>
       <c r="C244" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="D244" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -7021,16 +7270,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="B245" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="C245" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="D245" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -7038,16 +7287,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="B246" t="s">
-        <v>704</v>
+        <v>739</v>
       </c>
       <c r="C246" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="D246" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -7055,16 +7304,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
       <c r="B247" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="C247" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="D247" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -7072,16 +7321,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="B248" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="C248" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="D248" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -7089,16 +7338,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="B249" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
       <c r="C249" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="D249" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -7106,16 +7355,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="B250" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="C250" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="D250" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -7123,16 +7372,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="B251" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
       <c r="C251" t="s">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="D251" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -7140,16 +7389,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="B252" t="s">
-        <v>722</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s">
-        <v>723</v>
+        <v>758</v>
       </c>
       <c r="D252" t="s">
-        <v>724</v>
+        <v>759</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -7157,16 +7406,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="B253" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="C253" t="s">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="D253" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -7174,16 +7423,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="B254" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="C254" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="D254" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -7191,16 +7440,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="B255" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="C255" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="D255" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -7208,16 +7457,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="B256" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="C256" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="D256" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -7225,16 +7474,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="B257" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="D257" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -7242,16 +7491,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="B258" t="s">
-        <v>742</v>
+        <v>777</v>
       </c>
       <c r="C258" t="s">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="D258" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -7259,13 +7508,13 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>744</v>
+        <v>779</v>
       </c>
       <c r="B259" t="s">
-        <v>745</v>
+        <v>780</v>
       </c>
       <c r="D259" t="s">
-        <v>746</v>
+        <v>781</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -7273,16 +7522,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
       <c r="B260" t="s">
-        <v>748</v>
+        <v>783</v>
       </c>
       <c r="C260" t="s">
-        <v>749</v>
+        <v>784</v>
       </c>
       <c r="D260" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -7290,16 +7539,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="B261" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="C261" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="D261" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -7307,16 +7556,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="B262" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="C262" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="D262" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -7324,16 +7573,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
       <c r="B263" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="C263" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="D263" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -7341,30 +7590,30 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="B264" t="s">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="C264" t="s">
-        <v>762</v>
+        <v>797</v>
       </c>
       <c r="D264" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F264" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="B265" t="s">
-        <v>764</v>
+        <v>799</v>
       </c>
       <c r="D265" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -7372,16 +7621,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="B266" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="C266" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="D266" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -7389,13 +7638,13 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="B267" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="D267" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -7403,16 +7652,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="B268" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="C268" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="D268" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -7420,16 +7669,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
       <c r="B269" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="C269" t="s">
-        <v>776</v>
+        <v>811</v>
       </c>
       <c r="D269" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -7437,16 +7686,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>777</v>
+        <v>812</v>
       </c>
       <c r="B270" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="C270" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="D270" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -7454,16 +7703,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="B271" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="C271" t="s">
-        <v>782</v>
+        <v>817</v>
       </c>
       <c r="D271" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -7471,16 +7720,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>783</v>
+        <v>818</v>
       </c>
       <c r="B272" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="C272" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
       <c r="D272" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -7488,16 +7737,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="B273" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="C273" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="D273" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -7505,16 +7754,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="B274" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="C274" t="s">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="D274" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -7522,16 +7771,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="B275" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="C275" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="D275" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -7539,13 +7788,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="B276" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="D276" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -7553,13 +7802,13 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="B277" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="D277" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -7567,13 +7816,13 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="B278" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="D278" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -7581,16 +7830,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="B279" t="s">
-        <v>801</v>
+        <v>836</v>
       </c>
       <c r="C279" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="D279" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -7598,16 +7847,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="B280" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="C280" t="s">
+        <v>840</v>
+      </c>
+      <c r="D280" t="s">
         <v>805</v>
-      </c>
-      <c r="D280" t="s">
-        <v>770</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -7615,16 +7864,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="B281" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="C281" t="s">
-        <v>808</v>
+        <v>843</v>
       </c>
       <c r="D281" t="s">
-        <v>809</v>
+        <v>844</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -7632,16 +7881,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="B282" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="C282" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
       <c r="D282" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -7649,16 +7898,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="B283" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="C283" t="s">
-        <v>816</v>
+        <v>851</v>
       </c>
       <c r="D283" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -7666,16 +7915,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="B284" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="C284" t="s">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="D284" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -7683,16 +7932,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="B285" t="s">
-        <v>822</v>
+        <v>857</v>
       </c>
       <c r="C285" t="s">
-        <v>823</v>
+        <v>858</v>
       </c>
       <c r="D285" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -7700,13 +7949,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>825</v>
+        <v>860</v>
       </c>
       <c r="B286" t="s">
-        <v>826</v>
+        <v>861</v>
       </c>
       <c r="D286" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -7714,16 +7963,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>827</v>
+        <v>862</v>
       </c>
       <c r="B287" t="s">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="C287" t="s">
-        <v>829</v>
+        <v>864</v>
       </c>
       <c r="D287" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -7731,13 +7980,13 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="B288" t="s">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="D288" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F288" t="s">
         <v>10</v>
@@ -7745,16 +7994,16 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="B289" t="s">
-        <v>833</v>
+        <v>868</v>
       </c>
       <c r="C289" t="s">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="D289" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F289" t="s">
         <v>10</v>
@@ -7762,16 +8011,16 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="B290" t="s">
-        <v>836</v>
+        <v>871</v>
       </c>
       <c r="C290" t="s">
-        <v>837</v>
+        <v>872</v>
       </c>
       <c r="D290" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F290" t="s">
         <v>10</v>
@@ -7779,16 +8028,16 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>838</v>
+        <v>873</v>
       </c>
       <c r="B291" t="s">
-        <v>839</v>
+        <v>874</v>
       </c>
       <c r="C291" t="s">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="D291" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="F291" t="s">
         <v>10</v>
@@ -7796,16 +8045,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="B292" t="s">
-        <v>842</v>
+        <v>877</v>
       </c>
       <c r="C292" t="s">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="D292" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="F292" t="s">
         <v>10</v>
@@ -7813,16 +8062,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>845</v>
+        <v>880</v>
       </c>
       <c r="B293" t="s">
-        <v>846</v>
+        <v>881</v>
       </c>
       <c r="C293" t="s">
-        <v>847</v>
+        <v>882</v>
       </c>
       <c r="D293" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -7830,16 +8079,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>848</v>
+        <v>883</v>
       </c>
       <c r="B294" t="s">
-        <v>849</v>
+        <v>884</v>
       </c>
       <c r="C294" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="D294" t="s">
-        <v>844</v>
+        <v>879</v>
       </c>
       <c r="F294" t="s">
         <v>10</v>
@@ -7847,16 +8096,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="B295" t="s">
-        <v>852</v>
+        <v>887</v>
       </c>
       <c r="C295" t="s">
-        <v>853</v>
+        <v>888</v>
       </c>
       <c r="D295" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="F295" t="s">
         <v>10</v>
@@ -7864,33 +8113,33 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>855</v>
+        <v>890</v>
       </c>
       <c r="B296" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="C296" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="D296" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="F296" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>859</v>
+        <v>894</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="C297" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="D297" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="F297" t="s">
         <v>10</v>
@@ -7898,13 +8147,13 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>862</v>
+        <v>897</v>
       </c>
       <c r="B298" t="s">
-        <v>863</v>
+        <v>898</v>
       </c>
       <c r="D298" t="s">
-        <v>864</v>
+        <v>899</v>
       </c>
       <c r="F298" t="s">
         <v>10</v>
@@ -7912,49 +8161,64 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>865</v>
+        <v>900</v>
+      </c>
+      <c r="B299" t="s">
+        <v>901</v>
+      </c>
+      <c r="C299" t="s">
+        <v>902</v>
       </c>
       <c r="D299" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="F299" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>867</v>
+        <v>904</v>
+      </c>
+      <c r="B300" t="s">
+        <v>905</v>
       </c>
       <c r="D300" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="F300" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>868</v>
+        <v>906</v>
+      </c>
+      <c r="B301" t="s">
+        <v>907</v>
+      </c>
+      <c r="C301" t="s">
+        <v>908</v>
       </c>
       <c r="D301" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="F301" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="B302" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="C302" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="D302" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F302" t="s">
         <v>10</v>
@@ -7962,16 +8226,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="B303" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="C303" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
       <c r="D303" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F303" t="s">
         <v>10</v>
@@ -7979,16 +8243,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="B304" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="C304" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="D304" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F304" t="s">
         <v>10</v>
@@ -7996,16 +8260,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="B305" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="C305" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="D305" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F305" t="s">
         <v>10</v>
@@ -8013,16 +8277,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="B306" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="C306" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="D306" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F306" t="s">
         <v>10</v>
@@ -8030,16 +8294,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="B307" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="C307" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="D307" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F307" t="s">
         <v>10</v>
@@ -8047,16 +8311,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="B308" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="C308" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="D308" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F308" t="s">
         <v>10</v>
@@ -8064,16 +8328,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="B309" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="C309" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="D309" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F309" t="s">
         <v>10</v>
@@ -8081,16 +8345,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>894</v>
+        <v>934</v>
       </c>
       <c r="B310" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="C310" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="D310" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="F310" t="s">
         <v>10</v>
@@ -8098,16 +8362,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="B311" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="C311" t="s">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="D311" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="F311" t="s">
         <v>10</v>
@@ -8115,16 +8379,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>901</v>
+        <v>941</v>
       </c>
       <c r="B312" t="s">
-        <v>902</v>
+        <v>942</v>
       </c>
       <c r="C312" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="D312" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="F312" t="s">
         <v>10</v>
